--- a/試験項目書/単体試験項目書.xlsx
+++ b/試験項目書/単体試験項目書.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8A6B1-ADB7-4F23-A61F-18FF0D929C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30E3C76-1EE5-438E-8764-E8E8CBFB2D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="単体試験項目表（没サンプル）" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="エビデンス" sheetId="4" r:id="rId2"/>
+    <sheet name="対象コード" sheetId="3" r:id="rId3"/>
+    <sheet name="単体試験項目表（没サンプル）" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>作成</t>
   </si>
@@ -370,6 +371,70 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>■payment.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>payment.jsp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番１</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番２</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番３</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番４</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤保明</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤスアキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -417,6 +482,32 @@
       <sz val="10"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -523,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,16 +634,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -562,6 +643,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -577,6 +682,780 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F04CCC-CC67-4489-8DFB-EC067C0A31BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152526" y="1266825"/>
+          <a:ext cx="4152900" cy="1780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771EE43D-5EBE-4E1C-9302-2F9E07C54138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="1362075"/>
+          <a:ext cx="2066925" cy="504826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447146</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C84ACF-9CEC-4341-B4F7-0EFD3D9C9CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="3752850"/>
+          <a:ext cx="4228571" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1735976-1FCF-471A-BA03-EA8722DD96B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181099" y="3971925"/>
+          <a:ext cx="2219325" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F8713D-073A-402F-8568-64F938DF7DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="6181725"/>
+          <a:ext cx="4057650" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D7B780-B673-44BF-9875-A8A57A5FDE10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="6248400"/>
+          <a:ext cx="2219325" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399543</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF8DBB7-5469-4A13-BFC2-1285ECE333A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="8439150"/>
+          <a:ext cx="4057143" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9FD17F-CC58-4066-842A-D12375138783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="8439150"/>
+          <a:ext cx="2219325" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227463</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA19723D-C4D6-4CD3-9530-1993091DBC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="714375"/>
+          <a:ext cx="9095238" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C191F318-E2E4-4C50-B6CC-12C7ED671864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962274" y="1114425"/>
+          <a:ext cx="3400425" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A6302A-8A29-491B-B404-3F6E06CC2E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="2247900"/>
+          <a:ext cx="4000500" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC867DAD-ACAC-4CA3-B4C5-9AADCDB3E43F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="2762250"/>
+          <a:ext cx="3467100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B068B95-6FD2-49D8-986C-D88089E3820D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867026" y="3028950"/>
+          <a:ext cx="7038974" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,7 +1761,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,74 +1778,74 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="13">
         <v>43803</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="13">
         <v>43803</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
@@ -996,23 +1875,29 @@
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="13">
+        <v>43804</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,17 +1909,23 @@
       <c r="E8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="12" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="13">
+        <v>43804</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,43 +1935,57 @@
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="J9" s="13">
+        <v>43804</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="12" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="13">
+        <v>43804</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,15 +2214,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,19 +2230,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A265512-4E5F-4F93-924E-B33621639E92}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0D254-4309-4D0F-8143-234AE4503272}">
+  <dimension ref="C5:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:4" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A265512-4E5F-4F93-924E-B33621639E92}">
+  <dimension ref="B3:S35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="20"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1425,44 +2396,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>

--- a/試験項目書/単体試験項目書.xlsx
+++ b/試験項目書/単体試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C62AE08-BCB9-4FE0-85DB-F5D691C315D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB88DDD-578E-460E-ACC7-2DA52505CB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
   <si>
     <t>作成</t>
   </si>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/12/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -635,9 +631,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>!KNPUtility.isEmpty(action) &amp;&amp; action.equals("ACT Logout")</t>
-  </si>
-  <si>
     <t>!KNPUtility.isEmpty(action) &amp;&amp; !(action.equals("ACT Logout"))</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -719,6 +712,104 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>項番１</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番２</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>!KNPUtility.isEmpty(action) &amp;&amp; action.equals("ACT Logout")</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番3</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番4</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤保明</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤスアキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考欄</t>
+    <rPh sb="0" eb="3">
+      <t>ビコウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試験実施が出来ない</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番6</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番７</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番8</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番9</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -727,7 +818,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -823,6 +914,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -844,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -939,11 +1037,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="thin">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,28 +1109,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1055,6 +1148,49 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1476,6 +1612,1612 @@
         <a:xfrm>
           <a:off x="1219200" y="8439150"/>
           <a:ext cx="2219325" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8932793F-DCE6-407A-8894-4D0AFBBA560C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="10915650"/>
+          <a:ext cx="2486025" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D146B05B-382D-4E68-9311-78A9058AA59C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="11372850"/>
+          <a:ext cx="847726" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C54275D-1F6B-4828-92BB-40BB567A47FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="12525375"/>
+          <a:ext cx="2447925" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9316F6-CED7-4794-841D-F11A67E83486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476499" y="12982575"/>
+          <a:ext cx="781051" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>551462</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>56929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA0CF1B-6D83-4AFE-AD10-9BB870AF54E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="14192250"/>
+          <a:ext cx="7904762" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523126</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>76043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EE3462-FBEC-42AB-9205-ED0DC0FDBBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="16182975"/>
+          <a:ext cx="5990476" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6106DBCB-C2C2-4992-B08B-B9A5165622BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162049" y="15059025"/>
+          <a:ext cx="6181725" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43FBEE2-1EA7-4DB0-9E26-1476205CC599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="17154525"/>
+          <a:ext cx="5876925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94250</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>9186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F234DA4C-EF0C-49F7-9F59-820B16773B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="18059400"/>
+          <a:ext cx="8000000" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82108269-2C97-4B74-987E-D4CE7A82242D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="20354925"/>
+          <a:ext cx="6581775" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>551695</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>37936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BD9595-9334-4ABB-9690-58845FEABEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="21107400"/>
+          <a:ext cx="6038095" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA747884-9FAC-42F8-817D-2FDF192F6996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276351" y="22155150"/>
+          <a:ext cx="5962650" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>75201</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>56825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8FD577-A8BD-4867-AAB9-E0DC6E3535CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="23079075"/>
+          <a:ext cx="7990476" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>570745</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>18888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A93DBB-4288-4622-B42D-1392D5C3F907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="25965150"/>
+          <a:ext cx="6038095" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6963B5-7F61-432C-97B6-99F37E950435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="25422225"/>
+          <a:ext cx="6610350" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C006463E-46A9-4745-B0F3-BF7103642506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="27060526"/>
+          <a:ext cx="5943600" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>589564</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>142696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF32DFDA-8D6D-4121-9924-CF47C8EBCFF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="28060650"/>
+          <a:ext cx="7885714" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342181</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>114127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598123CB-CBAB-44D2-B9A4-50A6F6A7BA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="29698950"/>
+          <a:ext cx="5752381" cy="1380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0C6276-B10B-41A2-AC27-82E5A3531256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="28651199"/>
+          <a:ext cx="3962400" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127602B1-962C-43D2-BB09-EAF03A9EADCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="30718125"/>
+          <a:ext cx="5695950" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389413</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>85413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7BD1A2-6C4E-4894-B7D3-4E4C388434F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="31794450"/>
+          <a:ext cx="8895238" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48020153-4F33-4D88-A743-59ED15B1A1EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219199" y="31794449"/>
+          <a:ext cx="7419975" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541938</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>161725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD6BE73-ACA7-475F-A847-E14CAF31FF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="34547175"/>
+          <a:ext cx="7895238" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EDF2C3-095F-4507-BEC6-A5C08BA02EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="35518725"/>
+          <a:ext cx="7334250" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542095</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>66451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEFA6BE-5AA2-430F-8AB4-F1EF474D43B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="36852225"/>
+          <a:ext cx="6638095" cy="1790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B82B8E-6F67-46A2-8CE8-FA4FA2B9496D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="38061900"/>
+          <a:ext cx="6610350" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84440BA-C16B-4FA4-AC1E-F10F20891BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="36928425"/>
+          <a:ext cx="3448050" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>513600</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>95098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF72C635-05E8-4AAE-9784-0C8559FA0100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="39071550"/>
+          <a:ext cx="6000000" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB33CBE-6357-4C8B-8039-F886C140928E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="40052625"/>
+          <a:ext cx="5829300" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2838,10 +4580,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:M37"/>
+  <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2852,6 +4594,7 @@
     <col min="5" max="5" width="50.5703125" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" customWidth="1"/>
     <col min="7" max="9" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" customHeight="1">
@@ -2867,12 +4610,12 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -2887,45 +4630,45 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="31" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
@@ -3110,12 +4853,12 @@
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -3134,10 +4877,10 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -3157,39 +4900,39 @@
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="31" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
@@ -3212,63 +4955,67 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="36.75" customHeight="1">
+    <row r="18" spans="2:14" ht="36.75" customHeight="1">
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="13" t="s">
-        <v>61</v>
+      <c r="J18" s="13">
+        <v>43811</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" customHeight="1">
+    <row r="19" spans="2:14" ht="15.75" customHeight="1">
       <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>69</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="13" t="s">
-        <v>61</v>
+      <c r="J19" s="13">
+        <v>43811</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75" customHeight="1">
+    <row r="20" spans="2:14" ht="15.75" customHeight="1">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3282,7 +5029,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" customHeight="1">
+    <row r="21" spans="2:14" ht="15.75" customHeight="1">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3296,7 +5043,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" customHeight="1">
+    <row r="22" spans="2:14" ht="15.75" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -3310,17 +5057,17 @@
       <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1">
+    <row r="23" spans="2:14" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
@@ -3334,15 +5081,15 @@
       <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="2:13" ht="15.75" customHeight="1">
+    <row r="24" spans="2:14" ht="15.75" customHeight="1">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3356,40 +5103,43 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B25" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="31" t="s">
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="5" t="s">
         <v>16</v>
       </c>
@@ -3411,272 +5161,313 @@
       <c r="M26" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" customHeight="1">
+      <c r="N26" s="48"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" customHeight="1">
       <c r="B27" s="25">
         <v>3</v>
       </c>
       <c r="C27" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+        <v>89</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="13">
+        <v>43811</v>
+      </c>
+      <c r="K27" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" customHeight="1">
+      <c r="L27" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="39"/>
+      <c r="N27" s="43"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1">
       <c r="B28" s="25">
         <v>4</v>
       </c>
       <c r="C28" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+        <v>81</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1">
+        <v>72</v>
+      </c>
+      <c r="J28" s="13">
+        <v>43811</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="39"/>
+      <c r="N28" s="43"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" customHeight="1">
       <c r="B29" s="25">
         <v>5</v>
       </c>
       <c r="C29" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+        <v>82</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
       <c r="I29" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" customHeight="1">
+        <v>72</v>
+      </c>
+      <c r="J29" s="13">
+        <v>43811</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="46"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" customHeight="1">
       <c r="B30" s="25">
         <v>6</v>
       </c>
       <c r="C30" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="40" t="s">
         <v>85</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>87</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="12"/>
+      <c r="J30" s="13">
+        <v>43811</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" customHeight="1">
+      <c r="N30" s="43"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" customHeight="1">
       <c r="B31" s="25">
         <v>7</v>
       </c>
       <c r="C31" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="24"/>
       <c r="I31" s="3"/>
       <c r="J31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" customHeight="1">
+      <c r="N31" s="43"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" customHeight="1">
       <c r="B32" s="25">
         <v>8</v>
       </c>
       <c r="C32" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="24"/>
       <c r="I32" s="3"/>
       <c r="J32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" customHeight="1">
+      <c r="N32" s="43"/>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" customHeight="1">
       <c r="B33" s="25">
         <v>9</v>
       </c>
       <c r="C33" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="24"/>
       <c r="I33" s="3"/>
       <c r="J33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" customHeight="1">
+      <c r="N33" s="43"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" customHeight="1">
       <c r="B34" s="18"/>
-      <c r="C34" s="39"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="40"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="18"/>
       <c r="J34" s="22"/>
       <c r="K34" s="23"/>
       <c r="L34" s="21"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="41"/>
-    </row>
-    <row r="36" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B36" s="41"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="41"/>
-    </row>
-    <row r="37" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="41"/>
+    <row r="35" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="31"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B36" s="31"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
+  <mergeCells count="28">
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="G5:I5"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:M25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3685,19 +5476,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0D254-4309-4D0F-8143-234AE4503272}">
-  <dimension ref="C5:D65"/>
+  <dimension ref="C5:D229"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="L257" sqref="L257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="3:4" ht="14.25">
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="15" t="s">
@@ -3720,10 +5511,53 @@
       </c>
     </row>
     <row r="65" spans="3:4" ht="14.25">
-      <c r="C65" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="33"/>
+      <c r="C65" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="56"/>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3740,35 +5574,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A265512-4E5F-4F93-924E-B33621639E92}">
   <dimension ref="B3:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="10" spans="2:19">
       <c r="S10" s="14"/>
     </row>
     <row r="30" spans="2:3" ht="14.25">
-      <c r="B30" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="33"/>
+      <c r="B30" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="56"/>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" s="15"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="33"/>
+      <c r="B56" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3871,44 +5705,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="31" t="s">
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>

--- a/試験項目書/単体試験項目書.xlsx
+++ b/試験項目書/単体試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB88DDD-578E-460E-ACC7-2DA52505CB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F83AE-2FDF-4F7C-935A-C77F433F347F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,92 @@
     <sheet name="対象コード" sheetId="3" r:id="rId3"/>
     <sheet name="単体試験項目表（没サンプル）" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E5520290-5BF0-4758-9665-F847F821FAF5}</author>
+    <author>tc={53926E13-25BC-43B0-9168-C85D15BF8AD5}</author>
+    <author>tc={8620AF40-2A7A-498D-93DD-A5EA29EC56A1}</author>
+    <author>tc={026BFF5A-82E0-475F-A879-3972FFF0EF37}</author>
+    <author>tc={E28F12B2-D1E0-40B4-B148-9EFFA35037AC}</author>
+    <author>tc={00E530B6-4627-426D-85AE-A59C01A5FB2F}</author>
+    <author>tc={17392186-9D6A-4F94-824B-9F2B8CA049E3}</author>
+  </authors>
+  <commentList>
+    <comment ref="G38" authorId="0" shapeId="0" xr:uid="{E5520290-5BF0-4758-9665-F847F821FAF5}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    Payment.jspですかね？</t>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="1" shapeId="0" xr:uid="{53926E13-25BC-43B0-9168-C85D15BF8AD5}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    全て条件が同じになっていませんか？</t>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="2" shapeId="0" xr:uid="{8620AF40-2A7A-498D-93DD-A5EA29EC56A1}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    JSPの話(View)の話なので、if文を通るかどうかでなく、if文を通った結果、あるいは通らなかった結果どんな表示になるかで、確認をしましょうか。</t>
+      </text>
+    </comment>
+    <comment ref="G52" authorId="3" shapeId="0" xr:uid="{026BFF5A-82E0-475F-A879-3972FFF0EF37}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    メソッド名を加筆してください。</t>
+      </text>
+    </comment>
+    <comment ref="F56" authorId="4" shapeId="0" xr:uid="{E28F12B2-D1E0-40B4-B148-9EFFA35037AC}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「リクエストパラメータから受け取った値を、wrappingSelectに代入できているか」ですかね。</t>
+      </text>
+    </comment>
+    <comment ref="F57" authorId="5" shapeId="0" xr:uid="{00E530B6-4627-426D-85AE-A59C01A5FB2F}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    対象コードには「int型にキャスト変換」という旨の記述はないように思います。</t>
+      </text>
+    </comment>
+    <comment ref="F58" authorId="6" shapeId="0" xr:uid="{17392186-9D6A-4F94-824B-9F2B8CA049E3}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    何処に何を格納しているのか、もう少し細かく書いていきましょうか。今回だと「OrderDetailBeanのwrappingSelectにiwrappingSelectを代入」ですかね。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="159">
   <si>
     <t>作成</t>
   </si>
@@ -573,10 +653,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>productservlet.java</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2019/12/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -640,41 +716,6 @@
   </si>
   <si>
     <t>KNPUtility.isEmpty(action) &amp;&amp; !(action.equals("ACT Logout"))</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文が通る</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トオ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -810,6 +851,750 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;optgroup label="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ラッピングしますか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/12/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウンにラッピングしますか？と表示されているか？</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;c:when test="${cartInfo.wrappingSelect == 1 }"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文が通る</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PaymentQtyChgLogic.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>String wrappingSelect = (String) request.getParameter("wrapping");</t>
+  </si>
+  <si>
+    <t>int iwrappingSelect = Integer.parseInt(wrappingSelect);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int型にキャスト変換出来ているか？</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderDetailBean.setWrappingSelect(iwrappingSelect);</t>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>header.jsp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>productservlet.java</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>PaymentQtyChgLogic.jsp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>oderDetailAddLogic.java</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/12/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderDetailAddLogic.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orderDetailBean.setWrappingSelect(0);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>OrderDetailBean</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderDetailBean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>OrderDetailDAO</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>private int wrappingSelect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フィールドに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>型の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が宣言されているか</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getter, setter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public int getWrappingSelect() {</t>
+  </si>
+  <si>
+    <t>return wrappingSelect;</t>
+  </si>
+  <si>
+    <r>
+      <t>gettetWrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が宣言されているか？</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>WrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の戻り値を送れているか？</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>settetWrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が宣言されているか？</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public void  setWrappingSelect(int wrappingSelect) {</t>
+  </si>
+  <si>
+    <t>this.wrappingSelect = wrappingSelect;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public void changeQty(int order_detail_no, int purchase_qty,int wrappingSelect ) throws Exception {</t>
+  </si>
+  <si>
+    <t>changeQty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pstmt.setInt(++i, wrappingSelect);</t>
+  </si>
+  <si>
+    <t>pstmt.setInt(++i, orderDetailBean.getWrappingSelect());</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンドプロンプトを使用</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CartInfo Bean</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CartInfo Bean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CartInfo DAO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderDetail DAO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■CartInfoDAO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのWrappingカラムに値１が入っているか</t>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのWrappingカラムに値１が入っていない</t>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cartInfoBean.setWrappingSelect(rs.getInt("wrapping"));</t>
+  </si>
+  <si>
+    <r>
+      <t>OrderDetailBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>wrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>iwrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を代入</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orderDetailDao.changeQty(iorderDetailNo, ipurchaseQty,iwrappingSelect);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orderDetailDao.changeQtyメソッドに値を　　　　入　出来ているか？</t>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>イリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orderDetailBeanのWrappingSelectに値０を代入出来ているか？</t>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orderDetailBeanのWrappingSelectに値０を代入出来ない</t>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>payment.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｊｓｐ.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストパラメーターから受け取っった値を　　　WrappingSelectに代入出来ているか？</t>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public void changeQty(int order_detail_no, int purchase_qty,int wrappingSelect ) throws Exception {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>changeQty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メソッドに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>int wrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　の値が入っているか？</t>
+    </r>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>changeQty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メソッドに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>int wrappingSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　の値が入っていない</t>
+    </r>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのWrappingカラムに値１が入っている</t>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>pstmt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>orderDetailBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に値が代入されているか？</t>
+    </r>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cartInfoBeanのWrappingSelecｔに変数Wappingに値１が代入されているか？</t>
+    <rPh sb="28" eb="30">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cartInfoBeanのWrappingSelecｔに変数Wappingに値１が代入されていない？</t>
+    <rPh sb="28" eb="30">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;CartInfoBean&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -818,7 +1603,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -921,6 +1706,51 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -942,7 +1772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1054,11 +1884,20 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,9 +1928,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,6 +1998,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,10 +2018,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,10 +2030,86 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3265,13 +4184,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>160937</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>66427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3633,13 +4552,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>18286</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3677,13 +4596,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>494019</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>18807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3721,13 +4640,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3791,13 +4710,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3861,13 +4780,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3931,13 +4850,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4001,13 +4920,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4071,13 +4990,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4141,13 +5060,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4211,13 +5130,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4277,7 +5196,2423 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5052</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7656D6-DE71-42DF-8D75-22FE6F9DC9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614652" y="11725274"/>
+          <a:ext cx="7252997" cy="2752788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A985FD-6623-4037-9D44-CCA5A6AA3001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="12211049"/>
+          <a:ext cx="3200400" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B627229-8D50-44BA-8036-A9A3F6CC0A73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448049" y="12496799"/>
+          <a:ext cx="3952876" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46630</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>47499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55C707E-6FBA-4208-B9DF-E47253DEF440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="18459450"/>
+          <a:ext cx="7961905" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256228</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>161704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B741912-97B4-4C23-8844-795F4E8D2026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15268575"/>
+          <a:ext cx="7571428" cy="1771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399390</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>57024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53B8465-D25A-42DA-9EC7-F7CB9F44A738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20307300"/>
+          <a:ext cx="5276190" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044447FE-C608-4B68-8F5D-E66CEE35612F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571624" y="16544925"/>
+          <a:ext cx="6562725" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBBEBB3-54F7-4FB1-9794-AC367F65B36B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581149" y="17325975"/>
+          <a:ext cx="5019675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3E0DDD-B3F6-4DE7-AB5F-51AEF8139B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571624" y="16773525"/>
+          <a:ext cx="5629275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2075F404-C2B5-41FD-ABB6-4166E5C6C213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733549" y="18878550"/>
+          <a:ext cx="6829425" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01035CBB-4CED-4D40-8188-E2DC0F0CA2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="20716876"/>
+          <a:ext cx="3638550" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>351925</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>161824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0667BD2F-1961-4D9B-8556-56061D68D5D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="22288500"/>
+          <a:ext cx="4000000" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208759</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>28373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAABD2C9-B003-4B22-BBF4-6E709BF59803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="23612475"/>
+          <a:ext cx="6323809" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC8FAD0-F1F4-4C02-AAE6-12CC2783E8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="23841075"/>
+          <a:ext cx="3257550" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CFB6D4-41D9-405E-87D3-0864DFE4A898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390649" y="24384001"/>
+          <a:ext cx="5229225" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64510055-294B-4609-8330-5B35E4C737CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="22669500"/>
+          <a:ext cx="2905125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA93509-A40D-4286-A411-6FB293283F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="24050625"/>
+          <a:ext cx="2314575" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAE1C39-1D33-4D9F-BBAC-6A1B7AD770C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="24622124"/>
+          <a:ext cx="4057650" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560607</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>37999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBE08E3-C0BD-44DF-964D-46699BFD4EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="26269950"/>
+          <a:ext cx="10942857" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390018</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>66589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2E4BBB-3F1F-48CD-A509-5D5D2C2D6FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="27555825"/>
+          <a:ext cx="4057143" cy="685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332725</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>152305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5F3FB3-BCE8-4A67-84DC-319DE0DCB6A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="28860750"/>
+          <a:ext cx="5200000" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285107</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>76051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019B5664-44C5-4494-82C2-B3684A810791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="30137100"/>
+          <a:ext cx="5142857" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189640</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>66592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C48E22-1B8B-4DC3-9745-8608B33D742E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="31946850"/>
+          <a:ext cx="6876190" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89888368-F89C-4230-BA5B-0F941B66B16E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="26441400"/>
+          <a:ext cx="9725025" cy="276224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17D48FB-2192-4EA3-BFE6-AAE6F997D81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771776" y="27774900"/>
+          <a:ext cx="1809750" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA78C5-D60C-4563-A93B-371A499D32A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="30308550"/>
+          <a:ext cx="1533525" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3087EA7C-F335-4126-BF93-236BE870DD9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="32165925"/>
+          <a:ext cx="5353050" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC80F8D-C243-4BD8-A0B5-052E845543DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895601" y="30880050"/>
+          <a:ext cx="2686050" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851DD16F-971D-4099-B20C-1721B0B26116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="29117925"/>
+          <a:ext cx="3381375" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504306</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>18937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF40F96-5C7E-4624-A259-0557A447C35B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="33661350"/>
+          <a:ext cx="4152381" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361142</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>152202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17E7679-4A7F-4E3B-9F68-967D8866A616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="35061525"/>
+          <a:ext cx="6466667" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1642F3C-B257-4EC6-A3A2-1E4E36376E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="34099500"/>
+          <a:ext cx="2790825" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5498D4-0BAF-4709-9FAF-215CC5B604CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="35252025"/>
+          <a:ext cx="3276600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9426C62-C30E-4801-898E-27C22E7578CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="35480625"/>
+          <a:ext cx="2228850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A53D41-7423-42FD-BF84-C3B9577DE171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="35823525"/>
+          <a:ext cx="5210175" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A227487E-D99D-4833-BE37-CEF966D4F6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="36061650"/>
+          <a:ext cx="3638550" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447163</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>152304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1059CBB-30A9-451B-ABC4-A59EDD0EB18B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="37547550"/>
+          <a:ext cx="4095238" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494400</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>152307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0A0B5B-FFC1-4429-9AFA-C7189685C120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="38871525"/>
+          <a:ext cx="7200000" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD13FEC7-7112-4953-8DAD-AF7FA45751B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="37795200"/>
+          <a:ext cx="1914525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3299C29B-93FC-4D44-8FC3-D0D91C3953DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362199" y="39081076"/>
+          <a:ext cx="5362575" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="office365 user8" id="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" userId="office365 user8" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4575,15 +7910,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G38" dT="2019-12-23T04:00:10.39" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{E5520290-5BF0-4758-9665-F847F821FAF5}">
+    <text>Payment.jspですかね？</text>
+  </threadedComment>
+  <threadedComment ref="E44" dT="2019-12-23T03:57:04.73" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{53926E13-25BC-43B0-9168-C85D15BF8AD5}">
+    <text>全て条件が同じになっていませんか？</text>
+  </threadedComment>
+  <threadedComment ref="F44" dT="2019-12-23T03:59:36.87" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{8620AF40-2A7A-498D-93DD-A5EA29EC56A1}">
+    <text>JSPの話(View)の話なので、if文を通るかどうかでなく、if文を通った結果、あるいは通らなかった結果どんな表示になるかで、確認をしましょうか。</text>
+  </threadedComment>
+  <threadedComment ref="G52" dT="2019-12-23T04:00:39.39" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{026BFF5A-82E0-475F-A879-3972FFF0EF37}">
+    <text>メソッド名を加筆してください。</text>
+  </threadedComment>
+  <threadedComment ref="F56" dT="2019-12-23T04:02:19.62" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{E28F12B2-D1E0-40B4-B148-9EFFA35037AC}">
+    <text>「リクエストパラメータから受け取った値を、wrappingSelectに代入できているか」ですかね。</text>
+  </threadedComment>
+  <threadedComment ref="F57" dT="2019-12-23T04:10:47.14" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{00E530B6-4627-426D-85AE-A59C01A5FB2F}">
+    <text>対象コードには「int型にキャスト変換」という旨の記述はないように思います。</text>
+  </threadedComment>
+  <threadedComment ref="F58" dT="2019-12-23T04:13:03.91" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{17392186-9D6A-4F94-824B-9F2B8CA049E3}">
+    <text>何処に何を格納しているのか、もう少し細かく書いていきましょうか。今回だと「OrderDetailBeanのwrappingSelectにiwrappingSelectを代入」ですかね。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:N37"/>
+  <dimension ref="B2:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4610,12 +7971,12 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -4630,45 +7991,45 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="54" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
@@ -4712,10 +8073,10 @@
         <v>44</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="13">
+      <c r="J7" s="82">
         <v>43804</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L7" s="12" t="s">
@@ -4740,10 +8101,10 @@
         <v>44</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="13">
+      <c r="J8" s="82">
         <v>43804</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -4772,10 +8133,10 @@
         <v>44</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="13">
+      <c r="J9" s="82">
         <v>43804</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L9" s="12" t="s">
@@ -4800,10 +8161,10 @@
         <v>44</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="13">
+      <c r="J10" s="82">
         <v>43804</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L10" s="12" t="s">
@@ -4812,32 +8173,32 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
@@ -4849,19 +8210,19 @@
       <c r="D13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
@@ -4873,66 +8234,66 @@
       <c r="D14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="54" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
@@ -4965,25 +8326,25 @@
       <c r="D18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>62</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="13">
+      <c r="J18" s="86">
         <v>43811</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="44" t="s">
         <v>59</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M18" s="3"/>
     </row>
@@ -4993,83 +8354,73 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="13">
+      <c r="J19" s="86">
         <v>43811</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="24" t="s">
-        <v>88</v>
+      <c r="L19" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
-        <v>43810</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="13">
         <v>43810</v>
@@ -5077,374 +8428,2166 @@
       <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43810</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C26" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D26" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F26" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="54" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="5" t="s">
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="48"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B27" s="25">
+      <c r="N27" s="54"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B28" s="24">
         <v>3</v>
-      </c>
-      <c r="C27" s="8">
-        <v>107</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="13">
-        <v>43811</v>
-      </c>
-      <c r="K27" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="39"/>
-      <c r="N27" s="43"/>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B28" s="25">
-        <v>4</v>
       </c>
       <c r="C28" s="8">
         <v>107</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="13">
+        <v>87</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="82">
         <v>43811</v>
       </c>
-      <c r="K28" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="39"/>
-      <c r="N28" s="43"/>
+      <c r="K28" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="38"/>
+      <c r="N28" s="42"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B29" s="25">
-        <v>5</v>
+      <c r="B29" s="24">
+        <v>4</v>
       </c>
       <c r="C29" s="8">
         <v>107</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="13">
+        <v>80</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="82">
         <v>43811</v>
       </c>
-      <c r="K29" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="46"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="44" t="s">
-        <v>94</v>
-      </c>
+      <c r="K29" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="38"/>
+      <c r="N29" s="42"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B30" s="25">
-        <v>6</v>
+      <c r="B30" s="24">
+        <v>5</v>
       </c>
       <c r="C30" s="8">
         <v>107</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="82">
+        <v>43811</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="45"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B31" s="24">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8">
+        <v>107</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="82">
+        <v>43811</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="42"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B32" s="24">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8">
+        <v>108</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="82">
+        <v>43811</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="42"/>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B33" s="24">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8">
+        <v>109</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="82">
+        <v>43811</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="42"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B34" s="24">
+        <v>9</v>
+      </c>
+      <c r="C34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="82">
+        <v>43811</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="42"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B35" s="17"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="30"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B37" s="30"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="30"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
+        <v>43819</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="30"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B41" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="54"/>
+    </row>
+    <row r="43" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B43" s="46">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>104</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L43" s="40"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="42"/>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B44" s="46">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8">
+        <v>106</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="40"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="42"/>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B45" s="46">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8">
+        <v>106</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="13">
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="41"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="43"/>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B46" s="46">
+        <v>4</v>
+      </c>
+      <c r="C46" s="8">
+        <v>106</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="42"/>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B47" s="46">
+        <v>5</v>
+      </c>
+      <c r="C47" s="8">
+        <v>106</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="42"/>
+    </row>
+    <row r="51" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="57"/>
+    </row>
+    <row r="52" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="57"/>
+    </row>
+    <row r="54" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B54" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="56"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="57"/>
+    </row>
+    <row r="55" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="27" customHeight="1">
+      <c r="B56" s="66">
+        <v>1</v>
+      </c>
+      <c r="C56" s="62">
+        <v>36</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K56" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="2:13" ht="43.5" customHeight="1">
+      <c r="B57" s="66">
+        <v>2</v>
+      </c>
+      <c r="C57" s="62">
+        <v>37</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L57" s="23"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="2:13" ht="27" customHeight="1">
+      <c r="B58" s="66">
+        <v>3</v>
+      </c>
+      <c r="C58" s="63">
+        <v>40</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L58" s="12"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="2:13" ht="27" customHeight="1">
+      <c r="B59" s="66">
+        <v>4</v>
+      </c>
+      <c r="C59" s="62">
+        <v>48</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" s="12"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="63" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
+    </row>
+    <row r="64" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="55"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="57"/>
+    </row>
+    <row r="66" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B66" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="56"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="57"/>
+    </row>
+    <row r="67" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="27" customHeight="1">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8">
+        <v>86</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="K68" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L68" s="12"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" ht="27" customHeight="1">
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="K69" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L69" s="12"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="57"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B76" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="56"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="54"/>
+    </row>
+    <row r="78" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B78" s="48">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8">
+        <v>43</v>
+      </c>
+      <c r="D78" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="86">
         <v>43811</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K78" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L78" s="40"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="42"/>
+    </row>
+    <row r="79" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B79" s="48">
+        <v>2</v>
+      </c>
+      <c r="C79" s="8">
+        <v>225</v>
+      </c>
+      <c r="D79" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K79" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L79" s="40"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="42"/>
+    </row>
+    <row r="80" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B80" s="48">
+        <v>3</v>
+      </c>
+      <c r="C80" s="8">
+        <v>226</v>
+      </c>
+      <c r="D80" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K80" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" s="40"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="42"/>
+    </row>
+    <row r="81" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B81" s="48">
+        <v>4</v>
+      </c>
+      <c r="C81" s="8">
+        <v>228</v>
+      </c>
+      <c r="D81" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K81" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L81" s="41"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="42"/>
+    </row>
+    <row r="82" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B82" s="48">
+        <v>5</v>
+      </c>
+      <c r="C82" s="8">
+        <v>229</v>
+      </c>
+      <c r="D82" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K82" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L82" s="41"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="43"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="16"/>
+      <c r="F86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="57"/>
+    </row>
+    <row r="87" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57"/>
+    </row>
+    <row r="88" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B88" s="16"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+    </row>
+    <row r="89" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B89" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="56"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" s="54"/>
+    </row>
+    <row r="91" spans="2:14" ht="64.5" customHeight="1">
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="8">
+        <v>33</v>
+      </c>
+      <c r="D91" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G91" s="38"/>
+      <c r="H91" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K91" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L91" s="40"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="42"/>
+    </row>
+    <row r="92" spans="2:14" ht="64.5" customHeight="1">
+      <c r="B92" s="48">
+        <v>2</v>
+      </c>
+      <c r="C92" s="8">
+        <v>33</v>
+      </c>
+      <c r="D92" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="G92" s="38"/>
+      <c r="H92" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I92" s="23"/>
+      <c r="J92" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K92" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L92" s="40"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="42"/>
+    </row>
+    <row r="93" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B93" s="48">
+        <v>3</v>
+      </c>
+      <c r="C93" s="8">
+        <v>48</v>
+      </c>
+      <c r="D93" s="81" t="str">
+        <f>+ ",wrapping = ?"</f>
+        <v>,wrapping = ?</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G93" s="38"/>
+      <c r="H93" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I93" s="23"/>
+      <c r="J93" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K93" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L93" s="40"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="42"/>
+    </row>
+    <row r="94" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B94" s="48"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="81" t="str">
+        <f>+ ",wrapping = ?"</f>
+        <v>,wrapping = ?</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="38"/>
+      <c r="H94" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I94" s="23"/>
+      <c r="J94" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K94" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L94" s="40"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="42"/>
+    </row>
+    <row r="95" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B95" s="48">
+        <v>4</v>
+      </c>
+      <c r="C95" s="8">
+        <v>60</v>
+      </c>
+      <c r="D95" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F95" s="50"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K95" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L95" s="84"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="43"/>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B31" s="25">
+    </row>
+    <row r="96" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B96" s="48">
+        <v>5</v>
+      </c>
+      <c r="C96" s="8">
+        <v>148</v>
+      </c>
+      <c r="D96" s="81" t="str">
+        <f>+ ",`wrapping`"</f>
+        <v>,`wrapping`</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G96" s="38"/>
+      <c r="H96" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I96" s="23"/>
+      <c r="J96" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K96" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L96" s="40"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="42"/>
+    </row>
+    <row r="97" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B97" s="48"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="81" t="str">
+        <f>+ ",`wrapping`"</f>
+        <v>,`wrapping`</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="G97" s="38"/>
+      <c r="H97" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97" s="23"/>
+      <c r="J97" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K97" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L97" s="40"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="42"/>
+    </row>
+    <row r="98" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B98" s="48">
+        <v>6</v>
+      </c>
+      <c r="C98" s="8">
+        <v>169</v>
+      </c>
+      <c r="D98" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="38"/>
+      <c r="H98" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98" s="23"/>
+      <c r="J98" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K98" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L98" s="40"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="42"/>
+    </row>
+    <row r="99" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B99" s="48">
         <v>7</v>
       </c>
-      <c r="C31" s="8">
-        <v>108</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="43"/>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B32" s="25">
+      <c r="C99" s="8"/>
+      <c r="D99" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F99" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99" s="38"/>
+      <c r="H99" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I99" s="23"/>
+      <c r="J99" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K99" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L99" s="40"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="42"/>
+    </row>
+    <row r="100" spans="2:14" ht="15.75" customHeight="1">
+      <c r="J100" s="87"/>
+    </row>
+    <row r="103" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="57"/>
+    </row>
+    <row r="104" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="57"/>
+    </row>
+    <row r="106" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B106" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="8">
-        <v>109</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="43"/>
-    </row>
-    <row r="33" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B33" s="25">
+      <c r="C106" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="8">
-        <v>111</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="43"/>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B34" s="18"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="18"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B36" s="31"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="31"/>
+      <c r="D106" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="56"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="57"/>
+      <c r="N106" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N107" s="54"/>
+    </row>
+    <row r="108" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B108" s="48">
+        <v>1</v>
+      </c>
+      <c r="C108" s="8">
+        <v>43</v>
+      </c>
+      <c r="D108" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K108" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L108" s="40"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="42"/>
+    </row>
+    <row r="109" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B109" s="48">
+        <v>2</v>
+      </c>
+      <c r="C109" s="8">
+        <v>225</v>
+      </c>
+      <c r="D109" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K109" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L109" s="40"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="42"/>
+    </row>
+    <row r="110" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B110" s="48">
+        <v>3</v>
+      </c>
+      <c r="C110" s="8">
+        <v>226</v>
+      </c>
+      <c r="D110" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K110" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L110" s="40"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="42"/>
+    </row>
+    <row r="111" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B111" s="48">
+        <v>4</v>
+      </c>
+      <c r="C111" s="8">
+        <v>228</v>
+      </c>
+      <c r="D111" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K111" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L111" s="41"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="42"/>
+    </row>
+    <row r="112" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B112" s="48">
+        <v>5</v>
+      </c>
+      <c r="C112" s="8">
+        <v>229</v>
+      </c>
+      <c r="D112" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F112" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="86">
+        <v>43811</v>
+      </c>
+      <c r="K112" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="L112" s="41"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="43"/>
+    </row>
+    <row r="116" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="16"/>
+      <c r="F116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="57"/>
+    </row>
+    <row r="117" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="16"/>
+      <c r="F117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H117" s="56"/>
+      <c r="I117" s="56"/>
+      <c r="J117" s="57"/>
+    </row>
+    <row r="119" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B119" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="56"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="56"/>
+      <c r="L119" s="56"/>
+      <c r="M119" s="57"/>
+    </row>
+    <row r="120" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="27" customHeight="1">
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+      <c r="C121" s="8">
+        <v>55</v>
+      </c>
+      <c r="D121" s="81" t="str">
+        <f>+ "  d.wrapping,"</f>
+        <v xml:space="preserve">  d.wrapping,</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="K121" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L121" s="12"/>
+      <c r="M121" s="3"/>
+    </row>
+    <row r="122" spans="2:13" ht="27" customHeight="1">
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="81" t="str">
+        <f>+ "  d.wrapping,"</f>
+        <v xml:space="preserve">  d.wrapping,</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="K122" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L122" s="12"/>
+      <c r="M122" s="3"/>
+    </row>
+    <row r="123" spans="2:13" ht="27" customHeight="1">
+      <c r="B123" s="3">
+        <v>3</v>
+      </c>
+      <c r="C123" s="8">
+        <v>89</v>
+      </c>
+      <c r="D123" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F123" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="K123" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L123" s="12"/>
+      <c r="M123" s="3"/>
+    </row>
+    <row r="124" spans="2:13" ht="27" customHeight="1">
+      <c r="B124" s="3">
+        <v>4</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F124" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="K124" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L124" s="12"/>
+      <c r="M124" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
+  <mergeCells count="95">
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
@@ -5455,7 +10598,7 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N26:N27"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="C5:C6"/>
@@ -5464,13 +10607,34 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:M16"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5478,17 +10642,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0D254-4309-4D0F-8143-234AE4503272}">
   <dimension ref="C5:D229"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
+    <sheetView topLeftCell="A217" workbookViewId="0">
       <selection activeCell="L257" sqref="L257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="3:4" ht="14.25">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="15" t="s">
@@ -5511,53 +10675,53 @@
       </c>
     </row>
     <row r="65" spans="3:4" ht="14.25">
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="56"/>
+      <c r="D65" s="60"/>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="3:3">
       <c r="C173" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="227" spans="3:3">
       <c r="C227" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" s="59"/>
+      <c r="C229" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5572,43 +10736,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A265512-4E5F-4F93-924E-B33621639E92}">
-  <dimension ref="B3:S56"/>
+  <dimension ref="B3:S227"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="L230" sqref="L230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="3" spans="2:19">
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="2:19" ht="15">
+      <c r="B3" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="10" spans="2:19">
       <c r="S10" s="14"/>
     </row>
-    <row r="30" spans="2:3" ht="14.25">
-      <c r="B30" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="56"/>
-    </row>
-    <row r="35" spans="9:9">
-      <c r="I35" s="15"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="56"/>
+    <row r="30" spans="2:5" ht="17.25">
+      <c r="B30" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+    </row>
+    <row r="31" spans="2:5" ht="15">
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="15"/>
+    </row>
+    <row r="57" spans="2:5" ht="17.25">
+      <c r="B57" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+    </row>
+    <row r="58" spans="2:5" ht="15">
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+    </row>
+    <row r="75" spans="2:5" ht="15">
+      <c r="B75" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+    </row>
+    <row r="76" spans="2:5" ht="15">
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+    </row>
+    <row r="82" spans="8:9">
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+    </row>
+    <row r="97" spans="2:5" ht="17.25">
+      <c r="B97" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+    </row>
+    <row r="122" spans="2:5" ht="17.25">
+      <c r="B122" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="70"/>
+      <c r="D122" s="70"/>
+      <c r="E122" s="70"/>
+    </row>
+    <row r="134" spans="2:5" ht="17.25">
+      <c r="B134" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="69"/>
+    </row>
+    <row r="158" spans="2:5" ht="17.25">
+      <c r="B158" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="69"/>
+    </row>
+    <row r="203" spans="2:5" ht="17.25">
+      <c r="B203" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C203" s="69"/>
+      <c r="D203" s="69"/>
+      <c r="E203" s="69"/>
+    </row>
+    <row r="227" spans="2:5" ht="17.25">
+      <c r="B227" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
+  <mergeCells count="11">
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B203:E203"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B122:E122"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5705,44 +10961,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="54" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>

--- a/試験項目書/単体試験項目書.xlsx
+++ b/試験項目書/単体試験項目書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F83AE-2FDF-4F7C-935A-C77F433F347F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9CDD2A-0AC9-4E07-BB9B-EFA1B9215BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <author>tc={E28F12B2-D1E0-40B4-B148-9EFFA35037AC}</author>
     <author>tc={00E530B6-4627-426D-85AE-A59C01A5FB2F}</author>
     <author>tc={17392186-9D6A-4F94-824B-9F2B8CA049E3}</author>
+    <author>tc={5010424C-113A-4C4C-8CD3-D78D0CAE480A}</author>
   </authors>
   <commentList>
     <comment ref="G38" authorId="0" shapeId="0" xr:uid="{E5520290-5BF0-4758-9665-F847F821FAF5}">
@@ -96,6 +97,14 @@
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     何処に何を格納しているのか、もう少し細かく書いていきましょうか。今回だと「OrderDetailBeanのwrappingSelectにiwrappingSelectを代入」ですかね。</t>
+      </text>
+    </comment>
+    <comment ref="D93" authorId="7" shapeId="0" xr:uid="{5010424C-113A-4C4C-8CD3-D78D0CAE480A}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    Daoに関してはSQL実行後、仕様通りに値が入ったかどうかのみ試験していきましょうか。</t>
       </text>
     </comment>
   </commentList>
@@ -2005,31 +2014,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2048,25 +2032,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2109,6 +2078,46 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7612,6 +7621,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="office365 user8" id="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" userId="office365 user8" providerId="None"/>
+  <person displayName="office365 user9" id="{05E79138-6422-43E6-A214-AC1F86A78875}" userId="office365 user9" providerId="None"/>
 </personList>
 </file>
 
@@ -7933,6 +7943,9 @@
   <threadedComment ref="F58" dT="2019-12-23T04:13:03.91" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{17392186-9D6A-4F94-824B-9F2B8CA049E3}">
     <text>何処に何を格納しているのか、もう少し細かく書いていきましょうか。今回だと「OrderDetailBeanのwrappingSelectにiwrappingSelectを代入」ですかね。</text>
   </threadedComment>
+  <threadedComment ref="D93" dT="2019-12-23T04:56:13.43" personId="{05E79138-6422-43E6-A214-AC1F86A78875}" id="{5010424C-113A-4C4C-8CD3-D78D0CAE480A}">
+    <text>Daoに関してはSQL実行後、仕様通りに値が入ったかどうかのみ試験していきましょうか。</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -7943,8 +7956,8 @@
   </sheetPr>
   <dimension ref="B2:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7971,12 +7984,12 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -7991,45 +8004,45 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8073,7 +8086,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="82">
+      <c r="J7" s="66">
         <v>43804</v>
       </c>
       <c r="K7" s="44" t="s">
@@ -8101,7 +8114,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="82">
+      <c r="J8" s="66">
         <v>43804</v>
       </c>
       <c r="K8" s="44" t="s">
@@ -8133,7 +8146,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="82">
+      <c r="J9" s="66">
         <v>43804</v>
       </c>
       <c r="K9" s="44" t="s">
@@ -8161,7 +8174,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="82">
+      <c r="J10" s="66">
         <v>43804</v>
       </c>
       <c r="K10" s="44" t="s">
@@ -8214,12 +8227,12 @@
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -8238,10 +8251,10 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -8261,39 +8274,39 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58" t="s">
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
@@ -8337,7 +8350,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="86">
+      <c r="J18" s="70">
         <v>43811</v>
       </c>
       <c r="K18" s="44" t="s">
@@ -8365,7 +8378,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="86">
+      <c r="J19" s="70">
         <v>43811</v>
       </c>
       <c r="K19" s="44" t="s">
@@ -8432,12 +8445,12 @@
       <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -8456,10 +8469,10 @@
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -8479,42 +8492,42 @@
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58" t="s">
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="53" t="s">
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="5" t="s">
         <v>16</v>
       </c>
@@ -8536,7 +8549,7 @@
       <c r="M27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="54"/>
+      <c r="N27" s="82"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" customHeight="1">
       <c r="B28" s="24">
@@ -8559,7 +8572,7 @@
       <c r="I28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="82">
+      <c r="J28" s="66">
         <v>43811</v>
       </c>
       <c r="K28" s="44" t="s">
@@ -8592,7 +8605,7 @@
       <c r="I29" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="82">
+      <c r="J29" s="66">
         <v>43811</v>
       </c>
       <c r="K29" s="41" t="s">
@@ -8625,7 +8638,7 @@
       <c r="I30" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="82">
+      <c r="J30" s="66">
         <v>43811</v>
       </c>
       <c r="K30" s="41" t="s">
@@ -8658,7 +8671,7 @@
       <c r="I31" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="82">
+      <c r="J31" s="66">
         <v>43811</v>
       </c>
       <c r="K31" s="41" t="s">
@@ -8689,7 +8702,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="23"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="82">
+      <c r="J32" s="66">
         <v>43811</v>
       </c>
       <c r="K32" s="23" t="s">
@@ -8720,7 +8733,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="23"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="82">
+      <c r="J33" s="66">
         <v>43811</v>
       </c>
       <c r="K33" s="23" t="s">
@@ -8751,7 +8764,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="23"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="82">
+      <c r="J34" s="66">
         <v>43811</v>
       </c>
       <c r="K34" s="23" t="s">
@@ -8819,12 +8832,12 @@
       <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="36"/>
       <c r="L38" s="37"/>
       <c r="M38" s="30"/>
@@ -8843,48 +8856,48 @@
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="57"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="58" t="s">
+      <c r="G41" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58" t="s">
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="53" t="s">
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="5" t="s">
         <v>16</v>
       </c>
@@ -8906,7 +8919,7 @@
       <c r="M42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="54"/>
+      <c r="N42" s="82"/>
     </row>
     <row r="43" spans="2:14" ht="39.75" customHeight="1">
       <c r="B43" s="46">
@@ -8933,7 +8946,7 @@
       <c r="I43" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="86" t="s">
+      <c r="J43" s="70" t="s">
         <v>70</v>
       </c>
       <c r="K43" s="44" t="s">
@@ -8964,7 +8977,7 @@
       <c r="I44" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="70" t="s">
         <v>100</v>
       </c>
       <c r="K44" s="41" t="s">
@@ -8995,7 +9008,7 @@
       <c r="I45" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="86" t="s">
+      <c r="J45" s="70" t="s">
         <v>100</v>
       </c>
       <c r="K45" s="41" t="s">
@@ -9026,7 +9039,7 @@
       <c r="I46" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="86" t="s">
+      <c r="J46" s="70" t="s">
         <v>100</v>
       </c>
       <c r="K46" s="41" t="s">
@@ -9057,7 +9070,7 @@
       <c r="I47" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J47" s="86" t="s">
+      <c r="J47" s="70" t="s">
         <v>70</v>
       </c>
       <c r="K47" s="23" t="s">
@@ -9081,12 +9094,12 @@
       <c r="F51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="78"/>
     </row>
     <row r="52" spans="2:13" ht="15.75" customHeight="1">
       <c r="B52" s="2" t="s">
@@ -9102,47 +9115,47 @@
       <c r="F52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="78"/>
     </row>
     <row r="54" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="58" t="s">
+      <c r="G54" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="58" t="s">
+      <c r="H54" s="77"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="57"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="78"/>
     </row>
     <row r="55" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
       <c r="G55" s="5" t="s">
         <v>16</v>
       </c>
@@ -9166,10 +9179,10 @@
       </c>
     </row>
     <row r="56" spans="2:13" ht="27" customHeight="1">
-      <c r="B56" s="66">
+      <c r="B56" s="55">
         <v>1</v>
       </c>
-      <c r="C56" s="62">
+      <c r="C56" s="51">
         <v>36</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -9184,7 +9197,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="23"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="86" t="s">
+      <c r="J56" s="70" t="s">
         <v>100</v>
       </c>
       <c r="K56" s="44" t="s">
@@ -9194,10 +9207,10 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:13" ht="43.5" customHeight="1">
-      <c r="B57" s="66">
+      <c r="B57" s="55">
         <v>2</v>
       </c>
-      <c r="C57" s="62">
+      <c r="C57" s="51">
         <v>37</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -9206,13 +9219,13 @@
       <c r="E57" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="89" t="s">
+      <c r="F57" s="73" t="s">
         <v>108</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="23"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="86" t="s">
+      <c r="J57" s="70" t="s">
         <v>100</v>
       </c>
       <c r="K57" s="44" t="s">
@@ -9222,25 +9235,25 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="2:13" ht="27" customHeight="1">
-      <c r="B58" s="66">
+      <c r="B58" s="55">
         <v>3</v>
       </c>
-      <c r="C58" s="63">
+      <c r="C58" s="52">
         <v>40</v>
       </c>
-      <c r="D58" s="65" t="s">
+      <c r="D58" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="64" t="s">
+      <c r="E58" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="90" t="s">
+      <c r="F58" s="74" t="s">
         <v>144</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="23"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="86" t="s">
+      <c r="J58" s="70" t="s">
         <v>70</v>
       </c>
       <c r="K58" s="44" t="s">
@@ -9250,10 +9263,10 @@
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="2:13" ht="27" customHeight="1">
-      <c r="B59" s="66">
+      <c r="B59" s="55">
         <v>4</v>
       </c>
-      <c r="C59" s="62">
+      <c r="C59" s="51">
         <v>48</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -9268,7 +9281,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="23"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="86" t="s">
+      <c r="J59" s="70" t="s">
         <v>70</v>
       </c>
       <c r="K59" s="44" t="s">
@@ -9291,12 +9304,12 @@
       <c r="F63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="78"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" customHeight="1">
       <c r="B64" s="2" t="s">
@@ -9312,45 +9325,45 @@
       <c r="F64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="55"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="57"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="78"/>
     </row>
     <row r="66" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="51" t="s">
+      <c r="F66" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="58" t="s">
+      <c r="G66" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="56"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="58" t="s">
+      <c r="H66" s="77"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="57"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="78"/>
     </row>
     <row r="67" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
       <c r="G67" s="5" t="s">
         <v>16</v>
       </c>
@@ -9386,7 +9399,7 @@
       <c r="E68" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F68" s="91" t="s">
+      <c r="F68" s="75" t="s">
         <v>147</v>
       </c>
       <c r="G68" s="3"/>
@@ -9394,7 +9407,7 @@
         <v>110</v>
       </c>
       <c r="I68" s="3"/>
-      <c r="J68" s="86" t="s">
+      <c r="J68" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K68" s="44" t="s">
@@ -9414,7 +9427,7 @@
       <c r="E69" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F69" s="91" t="s">
+      <c r="F69" s="75" t="s">
         <v>148</v>
       </c>
       <c r="G69" s="3"/>
@@ -9422,7 +9435,7 @@
         <v>110</v>
       </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="86" t="s">
+      <c r="J69" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K69" s="44" t="s">
@@ -9445,12 +9458,12 @@
       <c r="F73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="78"/>
     </row>
     <row r="74" spans="2:14" ht="15.75" customHeight="1">
       <c r="B74" s="2" t="s">
@@ -9466,61 +9479,61 @@
       <c r="F74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="55" t="s">
+      <c r="G74" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="57"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="78"/>
     </row>
     <row r="75" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B75" s="77"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="76"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="60"/>
       <c r="G75" s="49"/>
       <c r="H75" s="49"/>
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
     </row>
     <row r="76" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="51" t="s">
+      <c r="F76" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="58" t="s">
+      <c r="G76" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="56"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="58" t="s">
+      <c r="H76" s="77"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="53" t="s">
+      <c r="K76" s="77"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
       <c r="G77" s="5" t="s">
         <v>16</v>
       </c>
@@ -9542,7 +9555,7 @@
       <c r="M77" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N77" s="54"/>
+      <c r="N77" s="82"/>
     </row>
     <row r="78" spans="2:14" ht="39.75" customHeight="1">
       <c r="B78" s="48">
@@ -9551,19 +9564,19 @@
       <c r="C78" s="8">
         <v>43</v>
       </c>
-      <c r="D78" s="81" t="s">
+      <c r="D78" s="65" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F78" s="80" t="s">
+      <c r="F78" s="64" t="s">
         <v>122</v>
       </c>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
       <c r="I78" s="23"/>
-      <c r="J78" s="86">
+      <c r="J78" s="70">
         <v>43811</v>
       </c>
       <c r="K78" s="44" t="s">
@@ -9580,22 +9593,22 @@
       <c r="C79" s="8">
         <v>225</v>
       </c>
-      <c r="D79" s="81" t="s">
+      <c r="D79" s="65" t="s">
         <v>124</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="80" t="s">
+      <c r="F79" s="64" t="s">
         <v>126</v>
       </c>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="23"/>
-      <c r="J79" s="86">
+      <c r="J79" s="70">
         <v>43811</v>
       </c>
-      <c r="K79" s="88" t="s">
+      <c r="K79" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L79" s="40"/>
@@ -9609,22 +9622,22 @@
       <c r="C80" s="8">
         <v>226</v>
       </c>
-      <c r="D80" s="81" t="s">
+      <c r="D80" s="65" t="s">
         <v>125</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="80" t="s">
+      <c r="F80" s="64" t="s">
         <v>127</v>
       </c>
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
       <c r="I80" s="23"/>
-      <c r="J80" s="86">
+      <c r="J80" s="70">
         <v>43811</v>
       </c>
-      <c r="K80" s="88" t="s">
+      <c r="K80" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L80" s="40"/>
@@ -9638,22 +9651,22 @@
       <c r="C81" s="8">
         <v>228</v>
       </c>
-      <c r="D81" s="81" t="s">
+      <c r="D81" s="65" t="s">
         <v>129</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F81" s="80" t="s">
+      <c r="F81" s="64" t="s">
         <v>128</v>
       </c>
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
       <c r="I81" s="23"/>
-      <c r="J81" s="86">
+      <c r="J81" s="70">
         <v>43811</v>
       </c>
-      <c r="K81" s="88" t="s">
+      <c r="K81" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L81" s="41"/>
@@ -9667,22 +9680,22 @@
       <c r="C82" s="8">
         <v>229</v>
       </c>
-      <c r="D82" s="81" t="s">
+      <c r="D82" s="65" t="s">
         <v>130</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="80" t="s">
+      <c r="F82" s="64" t="s">
         <v>122</v>
       </c>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
       <c r="I82" s="23"/>
-      <c r="J82" s="86">
+      <c r="J82" s="70">
         <v>43811</v>
       </c>
-      <c r="K82" s="88" t="s">
+      <c r="K82" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L82" s="41"/>
@@ -9703,12 +9716,12 @@
       <c r="F86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G86" s="55" t="s">
+      <c r="G86" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="57"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="78"/>
     </row>
     <row r="87" spans="2:14" ht="15.75" customHeight="1">
       <c r="B87" s="2" t="s">
@@ -9724,12 +9737,12 @@
       <c r="F87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G87" s="55" t="s">
+      <c r="G87" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="78"/>
     </row>
     <row r="88" spans="2:14" ht="15.75" customHeight="1">
       <c r="B88" s="16"/>
@@ -9743,42 +9756,42 @@
       <c r="J88" s="30"/>
     </row>
     <row r="89" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="51" t="s">
+      <c r="E89" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="51" t="s">
+      <c r="F89" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="58" t="s">
+      <c r="G89" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H89" s="56"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="58" t="s">
+      <c r="H89" s="77"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="53" t="s">
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="78"/>
+      <c r="N89" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="90" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
       <c r="G90" s="5" t="s">
         <v>16</v>
       </c>
@@ -9800,7 +9813,7 @@
       <c r="M90" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N90" s="54"/>
+      <c r="N90" s="82"/>
     </row>
     <row r="91" spans="2:14" ht="64.5" customHeight="1">
       <c r="B91" s="3">
@@ -9809,13 +9822,13 @@
       <c r="C91" s="8">
         <v>33</v>
       </c>
-      <c r="D91" s="81" t="s">
+      <c r="D91" s="65" t="s">
         <v>151</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F91" s="83" t="s">
+      <c r="F91" s="67" t="s">
         <v>152</v>
       </c>
       <c r="G91" s="38"/>
@@ -9823,7 +9836,7 @@
         <v>110</v>
       </c>
       <c r="I91" s="23"/>
-      <c r="J91" s="86">
+      <c r="J91" s="70">
         <v>43811</v>
       </c>
       <c r="K91" s="44" t="s">
@@ -9840,13 +9853,13 @@
       <c r="C92" s="8">
         <v>33</v>
       </c>
-      <c r="D92" s="81" t="s">
+      <c r="D92" s="65" t="s">
         <v>131</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F92" s="83" t="s">
+      <c r="F92" s="67" t="s">
         <v>153</v>
       </c>
       <c r="G92" s="38"/>
@@ -9854,7 +9867,7 @@
         <v>110</v>
       </c>
       <c r="I92" s="23"/>
-      <c r="J92" s="86">
+      <c r="J92" s="70">
         <v>43811</v>
       </c>
       <c r="K92" s="44" t="s">
@@ -9871,7 +9884,7 @@
       <c r="C93" s="8">
         <v>48</v>
       </c>
-      <c r="D93" s="81" t="str">
+      <c r="D93" s="65" t="str">
         <f>+ ",wrapping = ?"</f>
         <v>,wrapping = ?</v>
       </c>
@@ -9886,7 +9899,7 @@
         <v>110</v>
       </c>
       <c r="I93" s="23"/>
-      <c r="J93" s="86">
+      <c r="J93" s="70">
         <v>43811</v>
       </c>
       <c r="K93" s="44" t="s">
@@ -9899,7 +9912,7 @@
     <row r="94" spans="2:14" ht="39.75" customHeight="1">
       <c r="B94" s="48"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="81" t="str">
+      <c r="D94" s="65" t="str">
         <f>+ ",wrapping = ?"</f>
         <v>,wrapping = ?</v>
       </c>
@@ -9914,7 +9927,7 @@
         <v>110</v>
       </c>
       <c r="I94" s="23"/>
-      <c r="J94" s="86">
+      <c r="J94" s="70">
         <v>43811</v>
       </c>
       <c r="K94" s="44" t="s">
@@ -9931,7 +9944,7 @@
       <c r="C95" s="8">
         <v>60</v>
       </c>
-      <c r="D95" s="81" t="s">
+      <c r="D95" s="65" t="s">
         <v>133</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -9941,15 +9954,15 @@
       <c r="G95" s="38"/>
       <c r="H95" s="41"/>
       <c r="I95" s="23"/>
-      <c r="J95" s="86">
+      <c r="J95" s="70">
         <v>43811</v>
       </c>
       <c r="K95" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L95" s="84"/>
+      <c r="L95" s="68"/>
       <c r="M95" s="38"/>
-      <c r="N95" s="85" t="s">
+      <c r="N95" s="69" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9960,7 +9973,7 @@
       <c r="C96" s="8">
         <v>148</v>
       </c>
-      <c r="D96" s="81" t="str">
+      <c r="D96" s="65" t="str">
         <f>+ ",`wrapping`"</f>
         <v>,`wrapping`</v>
       </c>
@@ -9975,7 +9988,7 @@
         <v>110</v>
       </c>
       <c r="I96" s="23"/>
-      <c r="J96" s="86">
+      <c r="J96" s="70">
         <v>43811</v>
       </c>
       <c r="K96" s="44" t="s">
@@ -9988,7 +10001,7 @@
     <row r="97" spans="2:14" ht="39.75" customHeight="1">
       <c r="B97" s="48"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="81" t="str">
+      <c r="D97" s="65" t="str">
         <f>+ ",`wrapping`"</f>
         <v>,`wrapping`</v>
       </c>
@@ -10003,7 +10016,7 @@
         <v>110</v>
       </c>
       <c r="I97" s="23"/>
-      <c r="J97" s="86">
+      <c r="J97" s="70">
         <v>43811</v>
       </c>
       <c r="K97" s="44" t="s">
@@ -10020,13 +10033,13 @@
       <c r="C98" s="8">
         <v>169</v>
       </c>
-      <c r="D98" s="81" t="s">
+      <c r="D98" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F98" s="80" t="s">
+      <c r="F98" s="64" t="s">
         <v>155</v>
       </c>
       <c r="G98" s="38"/>
@@ -10034,7 +10047,7 @@
         <v>110</v>
       </c>
       <c r="I98" s="23"/>
-      <c r="J98" s="86">
+      <c r="J98" s="70">
         <v>43811</v>
       </c>
       <c r="K98" s="44" t="s">
@@ -10049,13 +10062,13 @@
         <v>7</v>
       </c>
       <c r="C99" s="8"/>
-      <c r="D99" s="81" t="s">
+      <c r="D99" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F99" s="80" t="s">
+      <c r="F99" s="64" t="s">
         <v>155</v>
       </c>
       <c r="G99" s="38"/>
@@ -10063,7 +10076,7 @@
         <v>110</v>
       </c>
       <c r="I99" s="23"/>
-      <c r="J99" s="86">
+      <c r="J99" s="70">
         <v>43811</v>
       </c>
       <c r="K99" s="44" t="s">
@@ -10074,7 +10087,7 @@
       <c r="N99" s="42"/>
     </row>
     <row r="100" spans="2:14" ht="15.75" customHeight="1">
-      <c r="J100" s="87"/>
+      <c r="J100" s="71"/>
     </row>
     <row r="103" spans="2:14" ht="15.75" customHeight="1">
       <c r="B103" s="2" t="s">
@@ -10090,12 +10103,12 @@
       <c r="F103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G103" s="55" t="s">
+      <c r="G103" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="57"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="78"/>
     </row>
     <row r="104" spans="2:14" ht="15.75" customHeight="1">
       <c r="B104" s="2" t="s">
@@ -10111,48 +10124,48 @@
       <c r="F104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="57"/>
+      <c r="G104" s="83"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="78"/>
     </row>
     <row r="106" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="51" t="s">
+      <c r="E106" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="51" t="s">
+      <c r="F106" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="58" t="s">
+      <c r="G106" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="56"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="58" t="s">
+      <c r="H106" s="77"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="53" t="s">
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="78"/>
+      <c r="N106" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
       <c r="G107" s="5" t="s">
         <v>16</v>
       </c>
@@ -10174,7 +10187,7 @@
       <c r="M107" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N107" s="54"/>
+      <c r="N107" s="82"/>
     </row>
     <row r="108" spans="2:14" ht="39.75" customHeight="1">
       <c r="B108" s="48">
@@ -10183,19 +10196,19 @@
       <c r="C108" s="8">
         <v>43</v>
       </c>
-      <c r="D108" s="81" t="s">
+      <c r="D108" s="65" t="s">
         <v>121</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F108" s="80" t="s">
+      <c r="F108" s="64" t="s">
         <v>122</v>
       </c>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
       <c r="I108" s="23"/>
-      <c r="J108" s="86">
+      <c r="J108" s="70">
         <v>43811</v>
       </c>
       <c r="K108" s="44" t="s">
@@ -10212,22 +10225,22 @@
       <c r="C109" s="8">
         <v>225</v>
       </c>
-      <c r="D109" s="81" t="s">
+      <c r="D109" s="65" t="s">
         <v>124</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="80" t="s">
+      <c r="F109" s="64" t="s">
         <v>126</v>
       </c>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
       <c r="I109" s="23"/>
-      <c r="J109" s="86">
+      <c r="J109" s="70">
         <v>43811</v>
       </c>
-      <c r="K109" s="88" t="s">
+      <c r="K109" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L109" s="40"/>
@@ -10241,22 +10254,22 @@
       <c r="C110" s="8">
         <v>226</v>
       </c>
-      <c r="D110" s="81" t="s">
+      <c r="D110" s="65" t="s">
         <v>125</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F110" s="80" t="s">
+      <c r="F110" s="64" t="s">
         <v>127</v>
       </c>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
       <c r="I110" s="23"/>
-      <c r="J110" s="86">
+      <c r="J110" s="70">
         <v>43811</v>
       </c>
-      <c r="K110" s="88" t="s">
+      <c r="K110" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L110" s="40"/>
@@ -10270,22 +10283,22 @@
       <c r="C111" s="8">
         <v>228</v>
       </c>
-      <c r="D111" s="81" t="s">
+      <c r="D111" s="65" t="s">
         <v>129</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F111" s="80" t="s">
+      <c r="F111" s="64" t="s">
         <v>128</v>
       </c>
       <c r="G111" s="38"/>
       <c r="H111" s="38"/>
       <c r="I111" s="23"/>
-      <c r="J111" s="86">
+      <c r="J111" s="70">
         <v>43811</v>
       </c>
-      <c r="K111" s="88" t="s">
+      <c r="K111" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L111" s="41"/>
@@ -10299,22 +10312,22 @@
       <c r="C112" s="8">
         <v>229</v>
       </c>
-      <c r="D112" s="81" t="s">
+      <c r="D112" s="65" t="s">
         <v>130</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F112" s="80" t="s">
+      <c r="F112" s="64" t="s">
         <v>122</v>
       </c>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="I112" s="23"/>
-      <c r="J112" s="86">
+      <c r="J112" s="70">
         <v>43811</v>
       </c>
-      <c r="K112" s="88" t="s">
+      <c r="K112" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L112" s="41"/>
@@ -10335,12 +10348,12 @@
       <c r="F116" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G116" s="55" t="s">
+      <c r="G116" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="57"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="78"/>
     </row>
     <row r="117" spans="2:13" ht="15.75" customHeight="1">
       <c r="B117" s="2" t="s">
@@ -10356,47 +10369,47 @@
       <c r="F117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="55" t="s">
+      <c r="G117" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="H117" s="56"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="57"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="78"/>
     </row>
     <row r="119" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="51" t="s">
+      <c r="C119" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="51" t="s">
+      <c r="D119" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="51" t="s">
+      <c r="E119" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F119" s="51" t="s">
+      <c r="F119" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="58" t="s">
+      <c r="G119" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="56"/>
-      <c r="I119" s="57"/>
-      <c r="J119" s="58" t="s">
+      <c r="H119" s="77"/>
+      <c r="I119" s="78"/>
+      <c r="J119" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="57"/>
+      <c r="K119" s="77"/>
+      <c r="L119" s="77"/>
+      <c r="M119" s="78"/>
     </row>
     <row r="120" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B120" s="52"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="80"/>
       <c r="G120" s="5" t="s">
         <v>16</v>
       </c>
@@ -10426,7 +10439,7 @@
       <c r="C121" s="8">
         <v>55</v>
       </c>
-      <c r="D121" s="81" t="str">
+      <c r="D121" s="65" t="str">
         <f>+ "  d.wrapping,"</f>
         <v xml:space="preserve">  d.wrapping,</v>
       </c>
@@ -10441,7 +10454,7 @@
         <v>110</v>
       </c>
       <c r="I121" s="3"/>
-      <c r="J121" s="86" t="s">
+      <c r="J121" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K121" s="44" t="s">
@@ -10455,7 +10468,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="8"/>
-      <c r="D122" s="81" t="str">
+      <c r="D122" s="65" t="str">
         <f>+ "  d.wrapping,"</f>
         <v xml:space="preserve">  d.wrapping,</v>
       </c>
@@ -10470,7 +10483,7 @@
         <v>110</v>
       </c>
       <c r="I122" s="3"/>
-      <c r="J122" s="86" t="s">
+      <c r="J122" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K122" s="44" t="s">
@@ -10486,19 +10499,19 @@
       <c r="C123" s="8">
         <v>89</v>
       </c>
-      <c r="D123" s="81" t="s">
+      <c r="D123" s="65" t="s">
         <v>143</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F123" s="91" t="s">
+      <c r="F123" s="75" t="s">
         <v>156</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="12"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="86" t="s">
+      <c r="J123" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K123" s="44" t="s">
@@ -10512,19 +10525,19 @@
         <v>4</v>
       </c>
       <c r="C124" s="8"/>
-      <c r="D124" s="81" t="s">
+      <c r="D124" s="65" t="s">
         <v>143</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F124" s="91" t="s">
+      <c r="F124" s="75" t="s">
         <v>157</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="12"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="86" t="s">
+      <c r="J124" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K124" s="44" t="s">
@@ -10535,69 +10548,25 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="G116:J116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G103:J103"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:M41"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -10611,25 +10580,69 @@
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:M26"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="J106:M106"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10649,10 +10662,10 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="3:4" ht="14.25">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="85"/>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="15" t="s">
@@ -10675,10 +10688,10 @@
       </c>
     </row>
     <row r="65" spans="3:4" ht="14.25">
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="60"/>
+      <c r="D65" s="85"/>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="15" t="s">
@@ -10745,126 +10758,126 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:19" ht="15">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="10" spans="2:19">
       <c r="S10" s="14"/>
     </row>
     <row r="30" spans="2:5" ht="17.25">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" spans="2:5" ht="15">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="15"/>
     </row>
     <row r="57" spans="2:5" ht="17.25">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
     </row>
     <row r="58" spans="2:5" ht="15">
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
     </row>
     <row r="75" spans="2:5" ht="15">
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
     </row>
     <row r="76" spans="2:5" ht="15">
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
     </row>
     <row r="82" spans="8:9">
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="89"/>
     </row>
     <row r="97" spans="2:5" ht="17.25">
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="90"/>
     </row>
     <row r="122" spans="2:5" ht="17.25">
-      <c r="B122" s="74" t="s">
+      <c r="B122" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="70"/>
+      <c r="C122" s="90"/>
+      <c r="D122" s="90"/>
+      <c r="E122" s="90"/>
     </row>
     <row r="134" spans="2:5" ht="17.25">
-      <c r="B134" s="68" t="s">
+      <c r="B134" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
+      <c r="C134" s="87"/>
+      <c r="D134" s="87"/>
+      <c r="E134" s="87"/>
     </row>
     <row r="158" spans="2:5" ht="17.25">
-      <c r="B158" s="68" t="s">
+      <c r="B158" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="69"/>
+      <c r="C158" s="87"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="87"/>
     </row>
     <row r="203" spans="2:5" ht="17.25">
-      <c r="B203" s="68" t="s">
+      <c r="B203" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C203" s="69"/>
-      <c r="D203" s="69"/>
-      <c r="E203" s="69"/>
+      <c r="C203" s="87"/>
+      <c r="D203" s="87"/>
+      <c r="E203" s="87"/>
     </row>
     <row r="227" spans="2:5" ht="17.25">
-      <c r="B227" s="74" t="s">
+      <c r="B227" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C227" s="69"/>
-      <c r="D227" s="69"/>
-      <c r="E227" s="69"/>
+      <c r="C227" s="87"/>
+      <c r="D227" s="87"/>
+      <c r="E227" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B122:E122"/>
     <mergeCell ref="B134:E134"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="B203:E203"/>
     <mergeCell ref="B227:E227"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B122:E122"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10961,44 +10974,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
@@ -20284,5 +20297,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/試験項目書/単体試験項目書.xlsx
+++ b/試験項目書/単体試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F83AE-2FDF-4F7C-935A-C77F433F347F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73EF80E-A86A-4427-A205-A8C8D632370A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     JSPの話(View)の話なので、if文を通るかどうかでなく、if文を通った結果、あるいは通らなかった結果どんな表示になるかで、確認をしましょうか。</t>
       </text>
     </comment>
-    <comment ref="G52" authorId="3" shapeId="0" xr:uid="{026BFF5A-82E0-475F-A879-3972FFF0EF37}">
+    <comment ref="G50" authorId="3" shapeId="0" xr:uid="{026BFF5A-82E0-475F-A879-3972FFF0EF37}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +74,7 @@
     メソッド名を加筆してください。</t>
       </text>
     </comment>
-    <comment ref="F56" authorId="4" shapeId="0" xr:uid="{E28F12B2-D1E0-40B4-B148-9EFFA35037AC}">
+    <comment ref="F54" authorId="4" shapeId="0" xr:uid="{E28F12B2-D1E0-40B4-B148-9EFFA35037AC}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -82,7 +82,7 @@
     「リクエストパラメータから受け取った値を、wrappingSelectに代入できているか」ですかね。</t>
       </text>
     </comment>
-    <comment ref="F57" authorId="5" shapeId="0" xr:uid="{00E530B6-4627-426D-85AE-A59C01A5FB2F}">
+    <comment ref="F55" authorId="5" shapeId="0" xr:uid="{00E530B6-4627-426D-85AE-A59C01A5FB2F}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +90,7 @@
     対象コードには「int型にキャスト変換」という旨の記述はないように思います。</t>
       </text>
     </comment>
-    <comment ref="F58" authorId="6" shapeId="0" xr:uid="{17392186-9D6A-4F94-824B-9F2B8CA049E3}">
+    <comment ref="F56" authorId="6" shapeId="0" xr:uid="{17392186-9D6A-4F94-824B-9F2B8CA049E3}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="160">
   <si>
     <t>作成</t>
   </si>
@@ -1595,6 +1595,10 @@
     <t>ArrayList&lt;CartInfoBean&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>&lt;c:when test="${cartInfo.wrappingSelect != 1 }"&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1603,7 +1607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1743,13 +1747,6 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2005,31 +2002,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2048,25 +2020,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2109,6 +2066,46 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7921,16 +7918,16 @@
   <threadedComment ref="F44" dT="2019-12-23T03:59:36.87" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{8620AF40-2A7A-498D-93DD-A5EA29EC56A1}">
     <text>JSPの話(View)の話なので、if文を通るかどうかでなく、if文を通った結果、あるいは通らなかった結果どんな表示になるかで、確認をしましょうか。</text>
   </threadedComment>
-  <threadedComment ref="G52" dT="2019-12-23T04:00:39.39" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{026BFF5A-82E0-475F-A879-3972FFF0EF37}">
+  <threadedComment ref="G50" dT="2019-12-23T04:00:39.39" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{026BFF5A-82E0-475F-A879-3972FFF0EF37}">
     <text>メソッド名を加筆してください。</text>
   </threadedComment>
-  <threadedComment ref="F56" dT="2019-12-23T04:02:19.62" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{E28F12B2-D1E0-40B4-B148-9EFFA35037AC}">
+  <threadedComment ref="F54" dT="2019-12-23T04:02:19.62" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{E28F12B2-D1E0-40B4-B148-9EFFA35037AC}">
     <text>「リクエストパラメータから受け取った値を、wrappingSelectに代入できているか」ですかね。</text>
   </threadedComment>
-  <threadedComment ref="F57" dT="2019-12-23T04:10:47.14" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{00E530B6-4627-426D-85AE-A59C01A5FB2F}">
+  <threadedComment ref="F55" dT="2019-12-23T04:10:47.14" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{00E530B6-4627-426D-85AE-A59C01A5FB2F}">
     <text>対象コードには「int型にキャスト変換」という旨の記述はないように思います。</text>
   </threadedComment>
-  <threadedComment ref="F58" dT="2019-12-23T04:13:03.91" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{17392186-9D6A-4F94-824B-9F2B8CA049E3}">
+  <threadedComment ref="F56" dT="2019-12-23T04:13:03.91" personId="{EA264F89-64DA-4623-AA48-9D443B9EA2FC}" id="{17392186-9D6A-4F94-824B-9F2B8CA049E3}">
     <text>何処に何を格納しているのか、もう少し細かく書いていきましょうか。今回だと「OrderDetailBeanのwrappingSelectにiwrappingSelectを代入」ですかね。</text>
   </threadedComment>
 </ThreadedComments>
@@ -7941,10 +7938,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:N124"/>
+  <dimension ref="B2:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7971,12 +7968,12 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -7991,45 +7988,45 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="57"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8073,7 +8070,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="82">
+      <c r="J7" s="66">
         <v>43804</v>
       </c>
       <c r="K7" s="44" t="s">
@@ -8101,7 +8098,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="82">
+      <c r="J8" s="66">
         <v>43804</v>
       </c>
       <c r="K8" s="44" t="s">
@@ -8133,7 +8130,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="82">
+      <c r="J9" s="66">
         <v>43804</v>
       </c>
       <c r="K9" s="44" t="s">
@@ -8161,7 +8158,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="82">
+      <c r="J10" s="66">
         <v>43804</v>
       </c>
       <c r="K10" s="44" t="s">
@@ -8214,12 +8211,12 @@
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -8238,10 +8235,10 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -8261,39 +8258,39 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58" t="s">
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
@@ -8337,7 +8334,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="86">
+      <c r="J18" s="70">
         <v>43811</v>
       </c>
       <c r="K18" s="44" t="s">
@@ -8365,7 +8362,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="86">
+      <c r="J19" s="70">
         <v>43811</v>
       </c>
       <c r="K19" s="44" t="s">
@@ -8432,12 +8429,12 @@
       <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -8456,10 +8453,10 @@
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -8479,42 +8476,42 @@
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58" t="s">
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="53" t="s">
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="5" t="s">
         <v>16</v>
       </c>
@@ -8536,7 +8533,7 @@
       <c r="M27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="54"/>
+      <c r="N27" s="82"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" customHeight="1">
       <c r="B28" s="24">
@@ -8559,7 +8556,7 @@
       <c r="I28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="82">
+      <c r="J28" s="66">
         <v>43811</v>
       </c>
       <c r="K28" s="44" t="s">
@@ -8592,7 +8589,7 @@
       <c r="I29" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="82">
+      <c r="J29" s="66">
         <v>43811</v>
       </c>
       <c r="K29" s="41" t="s">
@@ -8625,7 +8622,7 @@
       <c r="I30" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="82">
+      <c r="J30" s="66">
         <v>43811</v>
       </c>
       <c r="K30" s="41" t="s">
@@ -8658,7 +8655,7 @@
       <c r="I31" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="82">
+      <c r="J31" s="66">
         <v>43811</v>
       </c>
       <c r="K31" s="41" t="s">
@@ -8689,7 +8686,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="23"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="82">
+      <c r="J32" s="66">
         <v>43811</v>
       </c>
       <c r="K32" s="23" t="s">
@@ -8720,7 +8717,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="23"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="82">
+      <c r="J33" s="66">
         <v>43811</v>
       </c>
       <c r="K33" s="23" t="s">
@@ -8751,7 +8748,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="23"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="82">
+      <c r="J34" s="66">
         <v>43811</v>
       </c>
       <c r="K34" s="23" t="s">
@@ -8819,12 +8816,12 @@
       <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="78"/>
       <c r="K38" s="36"/>
       <c r="L38" s="37"/>
       <c r="M38" s="30"/>
@@ -8843,48 +8840,48 @@
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="57"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="58" t="s">
+      <c r="G41" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58" t="s">
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="53" t="s">
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="5" t="s">
         <v>16</v>
       </c>
@@ -8906,7 +8903,7 @@
       <c r="M42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="54"/>
+      <c r="N42" s="82"/>
     </row>
     <row r="43" spans="2:14" ht="39.75" customHeight="1">
       <c r="B43" s="46">
@@ -8933,7 +8930,7 @@
       <c r="I43" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="86" t="s">
+      <c r="J43" s="70" t="s">
         <v>70</v>
       </c>
       <c r="K43" s="44" t="s">
@@ -8964,7 +8961,7 @@
       <c r="I44" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="70" t="s">
         <v>100</v>
       </c>
       <c r="K44" s="41" t="s">
@@ -8985,17 +8982,15 @@
         <v>102</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>83</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F45" s="39"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="I45" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="86" t="s">
+      <c r="J45" s="70" t="s">
         <v>100</v>
       </c>
       <c r="K45" s="41" t="s">
@@ -9005,187 +9000,181 @@
       <c r="M45" s="38"/>
       <c r="N45" s="43"/>
     </row>
-    <row r="46" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B46" s="46">
+    <row r="49" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="78"/>
+    </row>
+    <row r="50" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C50" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="78"/>
+    </row>
+    <row r="52" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B52" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="77"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="78"/>
+    </row>
+    <row r="53" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="27" customHeight="1">
+      <c r="B54" s="55">
+        <v>1</v>
+      </c>
+      <c r="C54" s="51">
+        <v>36</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="K54" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="12"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="2:13" ht="43.5" customHeight="1">
+      <c r="B55" s="55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="51">
+        <v>37</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="86" t="s">
+      <c r="E55" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="K46" s="41" t="s">
+      <c r="K55" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="42"/>
-    </row>
-    <row r="47" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B47" s="46">
-        <v>5</v>
-      </c>
-      <c r="C47" s="8">
-        <v>106</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L47" s="23"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="42"/>
-    </row>
-    <row r="51" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
-    </row>
-    <row r="52" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57"/>
-    </row>
-    <row r="54" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B54" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="57"/>
-    </row>
-    <row r="55" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L55" s="23"/>
+      <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="27" customHeight="1">
-      <c r="B56" s="66">
-        <v>1</v>
-      </c>
-      <c r="C56" s="62">
-        <v>36</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="23" t="s">
+      <c r="B56" s="55">
+        <v>3</v>
+      </c>
+      <c r="C56" s="52">
+        <v>40</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="25" t="s">
-        <v>150</v>
+      <c r="F56" s="74" t="s">
+        <v>144</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="23"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="86" t="s">
-        <v>100</v>
+      <c r="J56" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="K56" s="44" t="s">
         <v>59</v>
@@ -9193,380 +9182,382 @@
       <c r="L56" s="12"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="2:13" ht="43.5" customHeight="1">
-      <c r="B57" s="66">
-        <v>2</v>
-      </c>
-      <c r="C57" s="62">
-        <v>37</v>
+    <row r="57" spans="2:13" ht="27" customHeight="1">
+      <c r="B57" s="55">
+        <v>4</v>
+      </c>
+      <c r="C57" s="51">
+        <v>48</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="89" t="s">
-        <v>108</v>
+      <c r="F57" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="23"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="86" t="s">
-        <v>100</v>
+      <c r="J57" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="K57" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="23"/>
+      <c r="L57" s="12"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="2:13" ht="27" customHeight="1">
-      <c r="B58" s="66">
-        <v>3</v>
-      </c>
-      <c r="C58" s="63">
-        <v>40</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="64" t="s">
+    <row r="61" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="78"/>
+    </row>
+    <row r="62" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="83"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
+    </row>
+    <row r="64" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B64" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="77"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="78"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="27" customHeight="1">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8">
+        <v>86</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="K58" s="44" t="s">
+      <c r="F66" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K66" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L58" s="12"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="2:13" ht="27" customHeight="1">
-      <c r="B59" s="66">
+      <c r="L66" s="12"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" ht="27" customHeight="1">
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K67" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L67" s="12"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="78"/>
+    </row>
+    <row r="72" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="62">
-        <v>48</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="23" t="s">
+      <c r="C72" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="78"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B74" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="77"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="82"/>
+    </row>
+    <row r="76" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B76" s="48">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8">
+        <v>43</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="K59" s="44" t="s">
+      <c r="F76" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="70">
+        <v>43811</v>
+      </c>
+      <c r="K76" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="63" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
-    </row>
-    <row r="64" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="55"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="57"/>
-    </row>
-    <row r="66" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B66" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="56"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="57"/>
-    </row>
-    <row r="67" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" ht="27" customHeight="1">
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="8">
-        <v>86</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="L76" s="40"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="42"/>
+    </row>
+    <row r="77" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B77" s="48">
+        <v>2</v>
+      </c>
+      <c r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F68" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="K68" s="44" t="s">
+      <c r="F77" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="70">
+        <v>43811</v>
+      </c>
+      <c r="K77" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="L68" s="12"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" ht="27" customHeight="1">
-      <c r="B69" s="3">
-        <v>2</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="K69" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L69" s="12"/>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
-    </row>
-    <row r="74" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="57"/>
-    </row>
-    <row r="75" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B75" s="77"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-    </row>
-    <row r="76" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B76" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="56"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N77" s="54"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="42"/>
     </row>
     <row r="78" spans="2:14" ht="39.75" customHeight="1">
       <c r="B78" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" s="8">
-        <v>43</v>
-      </c>
-      <c r="D78" s="81" t="s">
-        <v>121</v>
+        <v>226</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>125</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F78" s="80" t="s">
-        <v>122</v>
+      <c r="F78" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
       <c r="I78" s="23"/>
-      <c r="J78" s="86">
+      <c r="J78" s="70">
         <v>43811</v>
       </c>
-      <c r="K78" s="44" t="s">
+      <c r="K78" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L78" s="40"/>
@@ -9575,255 +9566,260 @@
     </row>
     <row r="79" spans="2:14" ht="39.75" customHeight="1">
       <c r="B79" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="8">
-        <v>225</v>
-      </c>
-      <c r="D79" s="81" t="s">
-        <v>124</v>
+        <v>228</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>129</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="80" t="s">
-        <v>126</v>
+      <c r="F79" s="64" t="s">
+        <v>128</v>
       </c>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="23"/>
-      <c r="J79" s="86">
+      <c r="J79" s="70">
         <v>43811</v>
       </c>
-      <c r="K79" s="88" t="s">
+      <c r="K79" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="L79" s="40"/>
+      <c r="L79" s="41"/>
       <c r="M79" s="38"/>
       <c r="N79" s="42"/>
     </row>
     <row r="80" spans="2:14" ht="39.75" customHeight="1">
       <c r="B80" s="48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C80" s="8">
-        <v>226</v>
-      </c>
-      <c r="D80" s="81" t="s">
-        <v>125</v>
+        <v>229</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>130</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="80" t="s">
-        <v>127</v>
+      <c r="F80" s="64" t="s">
+        <v>122</v>
       </c>
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
       <c r="I80" s="23"/>
-      <c r="J80" s="86">
+      <c r="J80" s="70">
         <v>43811</v>
       </c>
-      <c r="K80" s="88" t="s">
+      <c r="K80" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="L80" s="40"/>
+      <c r="L80" s="41"/>
       <c r="M80" s="38"/>
-      <c r="N80" s="42"/>
-    </row>
-    <row r="81" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B81" s="48">
+      <c r="N80" s="43"/>
+    </row>
+    <row r="84" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="78"/>
+    </row>
+    <row r="85" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B85" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="8">
-        <v>228</v>
-      </c>
-      <c r="D81" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="C85" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="78"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B86" s="16"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+    </row>
+    <row r="87" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B87" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="77"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="78"/>
+      <c r="N87" s="81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="82"/>
+    </row>
+    <row r="89" spans="2:14" ht="64.5" customHeight="1">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="8">
+        <v>33</v>
+      </c>
+      <c r="D89" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F81" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="86">
+      <c r="F89" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G89" s="38"/>
+      <c r="H89" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I89" s="23"/>
+      <c r="J89" s="70">
         <v>43811</v>
       </c>
-      <c r="K81" s="88" t="s">
+      <c r="K89" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L81" s="41"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="42"/>
-    </row>
-    <row r="82" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B82" s="48">
-        <v>5</v>
-      </c>
-      <c r="C82" s="8">
-        <v>229</v>
-      </c>
-      <c r="D82" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E82" s="8" t="s">
+      <c r="L89" s="40"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="42"/>
+    </row>
+    <row r="90" spans="2:14" ht="64.5" customHeight="1">
+      <c r="B90" s="48">
+        <v>2</v>
+      </c>
+      <c r="C90" s="8">
+        <v>33</v>
+      </c>
+      <c r="D90" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F82" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="86">
+      <c r="F90" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" s="38"/>
+      <c r="H90" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I90" s="23"/>
+      <c r="J90" s="70">
         <v>43811</v>
       </c>
-      <c r="K82" s="88" t="s">
+      <c r="K90" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L82" s="41"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="43"/>
-    </row>
-    <row r="86" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="57"/>
-    </row>
-    <row r="87" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57"/>
-    </row>
-    <row r="88" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B88" s="16"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-    </row>
-    <row r="89" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B89" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="56"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L90" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N90" s="54"/>
-    </row>
-    <row r="91" spans="2:14" ht="64.5" customHeight="1">
-      <c r="B91" s="3">
-        <v>1</v>
+      <c r="L90" s="40"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="42"/>
+    </row>
+    <row r="91" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B91" s="48">
+        <v>3</v>
       </c>
       <c r="C91" s="8">
-        <v>33</v>
-      </c>
-      <c r="D91" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F91" s="83" t="s">
-        <v>152</v>
+        <v>48</v>
+      </c>
+      <c r="D91" s="65" t="str">
+        <f>+ ",wrapping = ?"</f>
+        <v>,wrapping = ?</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="50" t="s">
+        <v>154</v>
       </c>
       <c r="G91" s="38"/>
       <c r="H91" s="41" t="s">
         <v>110</v>
       </c>
       <c r="I91" s="23"/>
-      <c r="J91" s="86">
+      <c r="J91" s="70">
         <v>43811</v>
       </c>
       <c r="K91" s="44" t="s">
@@ -9833,28 +9829,25 @@
       <c r="M91" s="38"/>
       <c r="N91" s="42"/>
     </row>
-    <row r="92" spans="2:14" ht="64.5" customHeight="1">
-      <c r="B92" s="48">
-        <v>2</v>
-      </c>
-      <c r="C92" s="8">
-        <v>33</v>
-      </c>
-      <c r="D92" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="83" t="s">
-        <v>153</v>
+    <row r="92" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B92" s="48"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="65" t="str">
+        <f>+ ",wrapping = ?"</f>
+        <v>,wrapping = ?</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="50" t="s">
+        <v>142</v>
       </c>
       <c r="G92" s="38"/>
       <c r="H92" s="41" t="s">
         <v>110</v>
       </c>
       <c r="I92" s="23"/>
-      <c r="J92" s="86">
+      <c r="J92" s="70">
         <v>43811</v>
       </c>
       <c r="K92" s="44" t="s">
@@ -9866,55 +9859,56 @@
     </row>
     <row r="93" spans="2:14" ht="39.75" customHeight="1">
       <c r="B93" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="8">
-        <v>48</v>
-      </c>
-      <c r="D93" s="81" t="str">
-        <f>+ ",wrapping = ?"</f>
-        <v>,wrapping = ?</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="50" t="s">
-        <v>154</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D93" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93" s="50"/>
       <c r="G93" s="38"/>
-      <c r="H93" s="41" t="s">
-        <v>110</v>
-      </c>
+      <c r="H93" s="41"/>
       <c r="I93" s="23"/>
-      <c r="J93" s="86">
+      <c r="J93" s="70">
         <v>43811</v>
       </c>
       <c r="K93" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L93" s="40"/>
+      <c r="L93" s="68"/>
       <c r="M93" s="38"/>
-      <c r="N93" s="42"/>
+      <c r="N93" s="69" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="94" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B94" s="48"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="81" t="str">
-        <f>+ ",wrapping = ?"</f>
-        <v>,wrapping = ?</v>
+      <c r="B94" s="48">
+        <v>5</v>
+      </c>
+      <c r="C94" s="8">
+        <v>148</v>
+      </c>
+      <c r="D94" s="65" t="str">
+        <f>+ ",`wrapping`"</f>
+        <v>,`wrapping`</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>135</v>
       </c>
       <c r="F94" s="50" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G94" s="38"/>
       <c r="H94" s="41" t="s">
         <v>110</v>
       </c>
       <c r="I94" s="23"/>
-      <c r="J94" s="86">
+      <c r="J94" s="70">
         <v>43811</v>
       </c>
       <c r="K94" s="44" t="s">
@@ -9925,57 +9919,55 @@
       <c r="N94" s="42"/>
     </row>
     <row r="95" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B95" s="48">
-        <v>4</v>
-      </c>
-      <c r="C95" s="8">
-        <v>60</v>
-      </c>
-      <c r="D95" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="50"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="65" t="str">
+        <f>+ ",`wrapping`"</f>
+        <v>,`wrapping`</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>142</v>
+      </c>
       <c r="G95" s="38"/>
-      <c r="H95" s="41"/>
+      <c r="H95" s="41" t="s">
+        <v>110</v>
+      </c>
       <c r="I95" s="23"/>
-      <c r="J95" s="86">
+      <c r="J95" s="70">
         <v>43811</v>
       </c>
       <c r="K95" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L95" s="84"/>
+      <c r="L95" s="40"/>
       <c r="M95" s="38"/>
-      <c r="N95" s="85" t="s">
-        <v>92</v>
-      </c>
+      <c r="N95" s="42"/>
     </row>
     <row r="96" spans="2:14" ht="39.75" customHeight="1">
       <c r="B96" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" s="8">
-        <v>148</v>
-      </c>
-      <c r="D96" s="81" t="str">
-        <f>+ ",`wrapping`"</f>
-        <v>,`wrapping`</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F96" s="50" t="s">
-        <v>154</v>
+        <v>169</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" s="64" t="s">
+        <v>155</v>
       </c>
       <c r="G96" s="38"/>
-      <c r="H96" s="41" t="s">
+      <c r="H96" s="40" t="s">
         <v>110</v>
       </c>
       <c r="I96" s="23"/>
-      <c r="J96" s="86">
+      <c r="J96" s="70">
         <v>43811</v>
       </c>
       <c r="K96" s="44" t="s">
@@ -9986,24 +9978,25 @@
       <c r="N96" s="42"/>
     </row>
     <row r="97" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B97" s="48"/>
+      <c r="B97" s="48">
+        <v>7</v>
+      </c>
       <c r="C97" s="8"/>
-      <c r="D97" s="81" t="str">
-        <f>+ ",`wrapping`"</f>
-        <v>,`wrapping`</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F97" s="50" t="s">
-        <v>142</v>
+      <c r="D97" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="64" t="s">
+        <v>155</v>
       </c>
       <c r="G97" s="38"/>
       <c r="H97" s="41" t="s">
         <v>110</v>
       </c>
       <c r="I97" s="23"/>
-      <c r="J97" s="86">
+      <c r="J97" s="70">
         <v>43811</v>
       </c>
       <c r="K97" s="44" t="s">
@@ -10013,192 +10006,190 @@
       <c r="M97" s="38"/>
       <c r="N97" s="42"/>
     </row>
-    <row r="98" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B98" s="48">
+    <row r="98" spans="2:14" ht="15.75" customHeight="1">
+      <c r="J98" s="71"/>
+    </row>
+    <row r="101" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="16"/>
+      <c r="F101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="78"/>
+    </row>
+    <row r="102" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="16"/>
+      <c r="F102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="8">
-        <v>169</v>
-      </c>
-      <c r="D98" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="8" t="s">
+      <c r="G102" s="83"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="78"/>
+    </row>
+    <row r="104" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B104" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="77"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="78"/>
+      <c r="N104" s="81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N105" s="82"/>
+    </row>
+    <row r="106" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B106" s="48">
+        <v>1</v>
+      </c>
+      <c r="C106" s="8">
+        <v>43</v>
+      </c>
+      <c r="D106" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F98" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="G98" s="38"/>
-      <c r="H98" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="86">
+      <c r="F106" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="70">
         <v>43811</v>
       </c>
-      <c r="K98" s="44" t="s">
+      <c r="K106" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L98" s="40"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="42"/>
-    </row>
-    <row r="99" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B99" s="48">
-        <v>7</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="8" t="s">
+      <c r="L106" s="40"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="42"/>
+    </row>
+    <row r="107" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B107" s="48">
+        <v>2</v>
+      </c>
+      <c r="C107" s="8">
+        <v>225</v>
+      </c>
+      <c r="D107" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F99" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="G99" s="38"/>
-      <c r="H99" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I99" s="23"/>
-      <c r="J99" s="86">
+      <c r="F107" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="70">
         <v>43811</v>
       </c>
-      <c r="K99" s="44" t="s">
+      <c r="K107" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="L99" s="40"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="42"/>
-    </row>
-    <row r="100" spans="2:14" ht="15.75" customHeight="1">
-      <c r="J100" s="87"/>
-    </row>
-    <row r="103" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="57"/>
-    </row>
-    <row r="104" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" s="55"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="57"/>
-    </row>
-    <row r="106" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B106" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="56"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B107" s="52"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N107" s="54"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="42"/>
     </row>
     <row r="108" spans="2:14" ht="39.75" customHeight="1">
       <c r="B108" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108" s="8">
-        <v>43</v>
-      </c>
-      <c r="D108" s="81" t="s">
-        <v>121</v>
+        <v>226</v>
+      </c>
+      <c r="D108" s="65" t="s">
+        <v>125</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F108" s="80" t="s">
-        <v>122</v>
+      <c r="F108" s="64" t="s">
+        <v>127</v>
       </c>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
       <c r="I108" s="23"/>
-      <c r="J108" s="86">
+      <c r="J108" s="70">
         <v>43811</v>
       </c>
-      <c r="K108" s="44" t="s">
+      <c r="K108" s="72" t="s">
         <v>59</v>
       </c>
       <c r="L108" s="40"/>
@@ -10207,241 +10198,240 @@
     </row>
     <row r="109" spans="2:14" ht="39.75" customHeight="1">
       <c r="B109" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="8">
-        <v>225</v>
-      </c>
-      <c r="D109" s="81" t="s">
-        <v>124</v>
+        <v>228</v>
+      </c>
+      <c r="D109" s="65" t="s">
+        <v>129</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="80" t="s">
-        <v>126</v>
+      <c r="F109" s="64" t="s">
+        <v>128</v>
       </c>
       <c r="G109" s="38"/>
       <c r="H109" s="38"/>
       <c r="I109" s="23"/>
-      <c r="J109" s="86">
+      <c r="J109" s="70">
         <v>43811</v>
       </c>
-      <c r="K109" s="88" t="s">
+      <c r="K109" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="L109" s="40"/>
+      <c r="L109" s="41"/>
       <c r="M109" s="38"/>
       <c r="N109" s="42"/>
     </row>
     <row r="110" spans="2:14" ht="39.75" customHeight="1">
       <c r="B110" s="48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" s="8">
-        <v>226</v>
-      </c>
-      <c r="D110" s="81" t="s">
-        <v>125</v>
+        <v>229</v>
+      </c>
+      <c r="D110" s="65" t="s">
+        <v>130</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F110" s="80" t="s">
-        <v>127</v>
+      <c r="F110" s="64" t="s">
+        <v>122</v>
       </c>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
       <c r="I110" s="23"/>
-      <c r="J110" s="86">
+      <c r="J110" s="70">
         <v>43811</v>
       </c>
-      <c r="K110" s="88" t="s">
+      <c r="K110" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="L110" s="40"/>
+      <c r="L110" s="41"/>
       <c r="M110" s="38"/>
-      <c r="N110" s="42"/>
-    </row>
-    <row r="111" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B111" s="48">
+      <c r="N110" s="43"/>
+    </row>
+    <row r="114" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="78"/>
+    </row>
+    <row r="115" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="8">
-        <v>228</v>
-      </c>
-      <c r="D111" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F111" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="86">
-        <v>43811</v>
-      </c>
-      <c r="K111" s="88" t="s">
+      <c r="C115" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" s="16"/>
+      <c r="F115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="78"/>
+    </row>
+    <row r="117" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B117" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" s="77"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
+      <c r="M117" s="78"/>
+    </row>
+    <row r="118" spans="2:13" ht="15.75" customHeight="1">
+      <c r="B118" s="80"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" ht="27" customHeight="1">
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+      <c r="C119" s="8">
+        <v>55</v>
+      </c>
+      <c r="D119" s="65" t="str">
+        <f>+ "  d.wrapping,"</f>
+        <v xml:space="preserve">  d.wrapping,</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K119" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L111" s="41"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="42"/>
-    </row>
-    <row r="112" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B112" s="48">
-        <v>5</v>
-      </c>
-      <c r="C112" s="8">
-        <v>229</v>
-      </c>
-      <c r="D112" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F112" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="86">
-        <v>43811</v>
-      </c>
-      <c r="K112" s="88" t="s">
+      <c r="L119" s="12"/>
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="2:13" ht="27" customHeight="1">
+      <c r="B120" s="3">
+        <v>2</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="65" t="str">
+        <f>+ "  d.wrapping,"</f>
+        <v xml:space="preserve">  d.wrapping,</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K120" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L112" s="41"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="43"/>
-    </row>
-    <row r="116" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B116" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G116" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="57"/>
-    </row>
-    <row r="117" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E117" s="16"/>
-      <c r="F117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="H117" s="56"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="57"/>
-    </row>
-    <row r="119" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B119" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="56"/>
-      <c r="I119" s="57"/>
-      <c r="J119" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="57"/>
-    </row>
-    <row r="120" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B120" s="52"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="L120" s="12"/>
+      <c r="M120" s="3"/>
     </row>
     <row r="121" spans="2:13" ht="27" customHeight="1">
       <c r="B121" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" s="8">
-        <v>55</v>
-      </c>
-      <c r="D121" s="81" t="str">
-        <f>+ "  d.wrapping,"</f>
-        <v xml:space="preserve">  d.wrapping,</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>141</v>
+        <v>89</v>
+      </c>
+      <c r="D121" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F121" s="75" t="s">
+        <v>156</v>
       </c>
       <c r="G121" s="3"/>
-      <c r="H121" s="23" t="s">
-        <v>110</v>
-      </c>
+      <c r="H121" s="12"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="86" t="s">
+      <c r="J121" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K121" s="44" t="s">
@@ -10452,25 +10442,22 @@
     </row>
     <row r="122" spans="2:13" ht="27" customHeight="1">
       <c r="B122" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C122" s="8"/>
-      <c r="D122" s="81" t="str">
-        <f>+ "  d.wrapping,"</f>
-        <v xml:space="preserve">  d.wrapping,</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>142</v>
+      <c r="D122" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F122" s="75" t="s">
+        <v>157</v>
       </c>
       <c r="G122" s="3"/>
-      <c r="H122" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="H122" s="12"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="86" t="s">
+      <c r="J122" s="70" t="s">
         <v>115</v>
       </c>
       <c r="K122" s="44" t="s">
@@ -10479,125 +10466,27 @@
       <c r="L122" s="12"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="2:13" ht="27" customHeight="1">
-      <c r="B123" s="3">
-        <v>3</v>
-      </c>
-      <c r="C123" s="8">
-        <v>89</v>
-      </c>
-      <c r="D123" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F123" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="K123" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L123" s="12"/>
-      <c r="M123" s="3"/>
-    </row>
-    <row r="124" spans="2:13" ht="27" customHeight="1">
-      <c r="B124" s="3">
-        <v>4</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F124" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="K124" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L124" s="12"/>
-      <c r="M124" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="J119:M119"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="J106:M106"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="G116:J116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G103:J103"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:M41"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -10611,25 +10500,69 @@
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:M26"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10649,10 +10582,10 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="3:4" ht="14.25">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="85"/>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="15" t="s">
@@ -10675,10 +10608,10 @@
       </c>
     </row>
     <row r="65" spans="3:4" ht="14.25">
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="60"/>
+      <c r="D65" s="85"/>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="15" t="s">
@@ -10745,126 +10678,126 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:19" ht="15">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="10" spans="2:19">
       <c r="S10" s="14"/>
     </row>
     <row r="30" spans="2:5" ht="17.25">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" spans="2:5" ht="15">
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="15"/>
     </row>
     <row r="57" spans="2:5" ht="17.25">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
     </row>
     <row r="58" spans="2:5" ht="15">
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
     </row>
     <row r="75" spans="2:5" ht="15">
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
     </row>
     <row r="76" spans="2:5" ht="15">
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
     </row>
     <row r="82" spans="8:9">
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="89"/>
     </row>
     <row r="97" spans="2:5" ht="17.25">
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="70"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="90"/>
     </row>
     <row r="122" spans="2:5" ht="17.25">
-      <c r="B122" s="74" t="s">
+      <c r="B122" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="C122" s="70"/>
-      <c r="D122" s="70"/>
-      <c r="E122" s="70"/>
+      <c r="C122" s="90"/>
+      <c r="D122" s="90"/>
+      <c r="E122" s="90"/>
     </row>
     <row r="134" spans="2:5" ht="17.25">
-      <c r="B134" s="68" t="s">
+      <c r="B134" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
+      <c r="C134" s="87"/>
+      <c r="D134" s="87"/>
+      <c r="E134" s="87"/>
     </row>
     <row r="158" spans="2:5" ht="17.25">
-      <c r="B158" s="68" t="s">
+      <c r="B158" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="69"/>
+      <c r="C158" s="87"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="87"/>
     </row>
     <row r="203" spans="2:5" ht="17.25">
-      <c r="B203" s="68" t="s">
+      <c r="B203" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C203" s="69"/>
-      <c r="D203" s="69"/>
-      <c r="E203" s="69"/>
+      <c r="C203" s="87"/>
+      <c r="D203" s="87"/>
+      <c r="E203" s="87"/>
     </row>
     <row r="227" spans="2:5" ht="17.25">
-      <c r="B227" s="74" t="s">
+      <c r="B227" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C227" s="69"/>
-      <c r="D227" s="69"/>
-      <c r="E227" s="69"/>
+      <c r="C227" s="87"/>
+      <c r="D227" s="87"/>
+      <c r="E227" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B122:E122"/>
     <mergeCell ref="B134:E134"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="B203:E203"/>
     <mergeCell ref="B227:E227"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B122:E122"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10961,44 +10894,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>

--- a/試験項目書/単体試験項目書.xlsx
+++ b/試験項目書/単体試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73EF80E-A86A-4427-A205-A8C8D632370A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED486B0-0AFB-4480-9CF4-FFB09FC71D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="163">
   <si>
     <t>作成</t>
   </si>
@@ -456,28 +456,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>payment.jsp</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>項番１</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
@@ -517,28 +495,6 @@
   </si>
   <si>
     <t>header.jsp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>header.jsp</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -650,10 +606,6 @@
   </si>
   <si>
     <t>productservlet.java</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019/12/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -878,10 +830,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2019/12/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プルダウンにラッピングしますか？と表示されているか？</t>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
@@ -1029,10 +977,6 @@
       </rPr>
       <t>oderDetailAddLogic.java</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2019/12/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1222,17 +1166,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>public void changeQty(int order_detail_no, int purchase_qty,int wrappingSelect ) throws Exception {</t>
-  </si>
-  <si>
     <t>changeQty</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pstmt.setInt(++i, wrappingSelect);</t>
-  </si>
-  <si>
-    <t>pstmt.setInt(++i, orderDetailBean.getWrappingSelect());</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1278,26 +1212,6 @@
   </si>
   <si>
     <t>■CartInfoDAO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DBのWrappingカラムに値１が入っているか</t>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DBのWrappingカラムに値１が入っていない</t>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1390,19 +1304,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>orderDetailBeanのWrappingSelectに値０を代入出来ない</t>
-    <rPh sb="31" eb="32">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>payment.</t>
     </r>
@@ -1479,107 +1380,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>changeQty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メソッドに</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>int wrappingSelect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　の値が入っていない</t>
-    </r>
-    <rPh sb="34" eb="35">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DBのWrappingカラムに値１が入っている</t>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>pstmt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>orderDetailBean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に値が代入されているか？</t>
-    </r>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>cartInfoBeanのWrappingSelecｔに変数Wappingに値１が代入されているか？</t>
-    <rPh sb="28" eb="30">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cartInfoBeanのWrappingSelecｔに変数Wappingに値１が代入されていない？</t>
     <rPh sb="28" eb="30">
       <t>ヘンスウ</t>
     </rPh>
@@ -1599,6 +1400,216 @@
     <t>&lt;c:when test="${cartInfo.wrappingSelect != 1 }"&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>pstmt.executeUpdate();</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQLを使用し、DBに値が入っているか？</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラッピング:有が表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ラッピング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が表示される</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>payment.jsp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>paymennt.jsp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■PaymentQtyChgLogic.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番１</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番２</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番３</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番４</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■OrderDetailBean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■OrderDetail DAO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CartInfo Bean</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>CartInfo DAO</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番2, 3</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのWrappingカラムに値１が　　　　　入っているか</t>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1607,7 +1618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1747,6 +1758,13 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1894,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2008,9 +2026,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2043,12 +2058,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2067,11 +2076,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,29 +2090,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2113,6 +2163,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF71121"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4134,6 +4189,1726 @@
         <a:xfrm>
           <a:off x="1285875" y="40052625"/>
           <a:ext cx="5829300" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428270</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>47421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50843B27-A450-45A8-81C2-2966D04C2790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="41633775"/>
+          <a:ext cx="2838095" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56BF074-66AE-4F95-92B3-217F76CFF404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="41814751"/>
+          <a:ext cx="1562100" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218745</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>152199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0434E3-2DCE-4A5A-88E7-26A333A316E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="43376850"/>
+          <a:ext cx="2638095" cy="1609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4350B14E-22A0-4C24-9882-797DE2CE61F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1200150" y="43519724"/>
+          <a:ext cx="2628900" cy="904876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>506566</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>142693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>531225</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>44361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矢印: 下 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE2A3C0-2E0D-4182-BB95-FF0C96ACCAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7867900">
+          <a:off x="1849174" y="44529610"/>
+          <a:ext cx="387443" cy="634259"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399698</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F4FAEA-228D-46E0-BE86-02BBC56207C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="45491400"/>
+          <a:ext cx="2819048" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC7B85-6A74-4977-AFEE-BAEB33575F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1247775" y="45624750"/>
+          <a:ext cx="2628900" cy="904876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7324</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>113786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80032</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>66057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矢印: 下 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D590171-DB1F-47C5-95E9-A9110BC93835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7867900">
+          <a:off x="1958255" y="46283155"/>
+          <a:ext cx="438046" cy="682308"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523201</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>18807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501104EA-AF63-41A4-9606-8479F723D86E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="48348900"/>
+          <a:ext cx="5390476" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2DE4D5-52A8-43C3-BAF0-6F6F8BCB47CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1266824" y="49577625"/>
+          <a:ext cx="4676775" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523199</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>28327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB0BA2D-8C7E-444B-8F21-298D75B5F2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="50806350"/>
+          <a:ext cx="5409524" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA0BB66-7AF3-491F-B474-56F7B7A2C586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1257300" y="52301775"/>
+          <a:ext cx="4676775" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170813</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>28389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAA27EB-7496-41F7-8C2A-496513191478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="53244750"/>
+          <a:ext cx="5095238" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>494770</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>18948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468B612E-5D70-4390-B01E-8D2E996966E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="54740175"/>
+          <a:ext cx="4238095" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7701439E-73E6-451F-A463-BD463A63D34C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1514475" y="55359299"/>
+          <a:ext cx="3552825" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294630</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>76013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C0E6AD-9396-4D1D-8F0C-934BE81A5CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="56416575"/>
+          <a:ext cx="5161905" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53DFBE5-6EA4-433F-8381-D45AF8A45D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1400175" y="57473849"/>
+          <a:ext cx="3800475" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161298</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>161688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03373540-F71C-4D37-A214-8CB0FF4A3E82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="58740675"/>
+          <a:ext cx="5019048" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A3D92A-94B1-4A74-A9C3-A815DF709D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1552575" y="59950349"/>
+          <a:ext cx="4352925" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608305</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>85533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27B2E80-3C78-4F3D-BCEC-A7D262CE07A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="61483875"/>
+          <a:ext cx="10361905" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05235B70-17CE-42DA-B84F-891D10DD91E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1476375" y="62217299"/>
+          <a:ext cx="9058275" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570211</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>104585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5908111-E73F-4B9A-A657-453E46C408C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="64131825"/>
+          <a:ext cx="10314286" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433CDCD8-6EFF-439F-9402-2F2573CCEA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1504950" y="65246249"/>
+          <a:ext cx="9105900" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576168</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>157067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>499673</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>23233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FF3447-0489-4175-8A7A-B8D016063001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1185768" y="66222467"/>
+          <a:ext cx="2361905" cy="5209691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C18BD08-1AC5-4852-AD26-621D8C263F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1676400" y="70561200"/>
+          <a:ext cx="466725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>351156</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>66589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA68FE50-0AA2-4F7D-9D2D-363B170BB320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="72428100"/>
+          <a:ext cx="10152381" cy="685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FAAF1B-A332-48B6-A096-F0C508F19FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1400175" y="72771000"/>
+          <a:ext cx="9058275" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580727</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>161243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21378DC2-A3C8-4AB4-B3A3-2DEBCCE2BAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="73923525"/>
+          <a:ext cx="2380952" cy="5457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81F3638-C83C-4743-8BD1-983D23C58A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1771650" y="78485999"/>
+          <a:ext cx="466725" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>55849</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>9243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE606A4E-6076-4E62-8B78-BD200771E2C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="80371950"/>
+          <a:ext cx="10409524" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433A13F6-513C-4E6E-B72B-055E763B51D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1685925" y="82419823"/>
+          <a:ext cx="8791575" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6941,13 +8716,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504306</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>18937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6985,13 +8760,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>361142</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>152202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7029,13 +8804,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7099,13 +8874,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7169,13 +8944,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7239,13 +9014,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7309,13 +9084,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7379,13 +9154,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>447163</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>152304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7423,13 +9198,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>494400</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>152307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7467,13 +9242,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7537,13 +9312,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7561,6 +9336,120 @@
         <a:xfrm>
           <a:off x="2362199" y="39081076"/>
           <a:ext cx="5362575" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456615</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>57046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766812BE-C21D-44C5-9830-C8C1486BF70D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="33070800"/>
+          <a:ext cx="4676190" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706519EB-CED9-4FA6-A78D-9AE964EF26B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="33470849"/>
+          <a:ext cx="2219325" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7938,10 +9827,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:N122"/>
+  <dimension ref="B2:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7968,12 +9857,12 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -7988,45 +9877,45 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="76" t="s">
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8070,11 +9959,11 @@
         <v>44</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="66">
+      <c r="J7" s="65">
         <v>43804</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>44</v>
@@ -8098,11 +9987,11 @@
         <v>44</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="66">
+      <c r="J8" s="65">
         <v>43804</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>44</v>
@@ -8130,11 +10019,11 @@
         <v>44</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="66">
+      <c r="J9" s="65">
         <v>43804</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>44</v>
@@ -8158,11 +10047,11 @@
         <v>44</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="66">
+      <c r="J10" s="65">
         <v>43804</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>44</v>
@@ -8211,12 +10100,12 @@
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="G13" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -8235,10 +10124,10 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -8258,39 +10147,39 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="76" t="s">
+      <c r="H16" s="79"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
@@ -8318,30 +10207,30 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="23" t="s">
-        <v>62</v>
+      <c r="H18" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="70">
+      <c r="J18" s="67">
         <v>43811</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="L18" s="97" t="s">
+        <v>83</v>
       </c>
       <c r="M18" s="3"/>
     </row>
@@ -8352,24 +10241,24 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="23" t="s">
-        <v>62</v>
+      <c r="H19" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="70">
+      <c r="J19" s="67">
         <v>43811</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="M19" s="3"/>
     </row>
@@ -8429,12 +10318,12 @@
       <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
+      <c r="G23" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -8453,10 +10342,10 @@
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -8476,42 +10365,42 @@
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="76" t="s">
+      <c r="H26" s="79"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="81" t="s">
-        <v>91</v>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="76" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="5" t="s">
         <v>16</v>
       </c>
@@ -8533,7 +10422,7 @@
       <c r="M27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="82"/>
+      <c r="N27" s="77"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" customHeight="1">
       <c r="B28" s="24">
@@ -8543,27 +10432,27 @@
         <v>107</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="66">
+        <v>68</v>
+      </c>
+      <c r="J28" s="65">
         <v>43811</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="42"/>
@@ -8576,27 +10465,27 @@
         <v>107</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="39" t="s">
         <v>80</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>83</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="66">
+        <v>68</v>
+      </c>
+      <c r="J29" s="65">
         <v>43811</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M29" s="38"/>
       <c r="N29" s="42"/>
@@ -8609,29 +10498,29 @@
         <v>107</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
       <c r="I30" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="66">
+        <v>68</v>
+      </c>
+      <c r="J30" s="65">
         <v>43811</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L30" s="45"/>
       <c r="M30" s="38"/>
       <c r="N30" s="43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="15.75" customHeight="1">
@@ -8642,27 +10531,27 @@
         <v>107</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="66">
+        <v>68</v>
+      </c>
+      <c r="J31" s="65">
         <v>43811</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="42"/>
@@ -8675,25 +10564,25 @@
         <v>108</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="23"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="66">
+      <c r="J32" s="65">
         <v>43811</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="42"/>
@@ -8706,25 +10595,25 @@
         <v>109</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="23"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="66">
+      <c r="J33" s="65">
         <v>43811</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="42"/>
@@ -8737,25 +10626,25 @@
         <v>111</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="23"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="66">
+      <c r="J34" s="65">
         <v>43811</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="42"/>
@@ -8816,12 +10705,12 @@
       <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="78"/>
+      <c r="G38" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="36"/>
       <c r="L38" s="37"/>
       <c r="M38" s="30"/>
@@ -8840,48 +10729,48 @@
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="83"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="76" t="s">
+      <c r="G41" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="76" t="s">
+      <c r="H41" s="79"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="81" t="s">
-        <v>91</v>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="76" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="5" t="s">
         <v>16</v>
       </c>
@@ -8903,7 +10792,7 @@
       <c r="M42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="82"/>
+      <c r="N42" s="77"/>
     </row>
     <row r="43" spans="2:14" ht="39.75" customHeight="1">
       <c r="B43" s="46">
@@ -8913,30 +10802,32 @@
         <v>104</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J43" s="70" t="s">
-        <v>70</v>
+        <v>96</v>
+      </c>
+      <c r="J43" s="67">
+        <v>43822</v>
       </c>
       <c r="K43" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L43" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="L43" s="40" t="s">
+        <v>149</v>
+      </c>
       <c r="M43" s="38"/>
       <c r="N43" s="42"/>
     </row>
@@ -8948,26 +10839,28 @@
         <v>106</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="F44" s="90" t="s">
+        <v>147</v>
       </c>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
       <c r="I44" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="70" t="s">
-        <v>100</v>
+      <c r="J44" s="67">
+        <v>43822</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L44" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>149</v>
+      </c>
       <c r="M44" s="38"/>
       <c r="N44" s="42"/>
     </row>
@@ -8979,24 +10872,28 @@
         <v>106</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" s="39"/>
+        <v>144</v>
+      </c>
+      <c r="F45" s="91" t="s">
+        <v>148</v>
+      </c>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="I45" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="70" t="s">
-        <v>100</v>
+      <c r="J45" s="67">
+        <v>43822</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="L45" s="41" t="s">
+        <v>149</v>
+      </c>
       <c r="M45" s="38"/>
       <c r="N45" s="43"/>
     </row>
@@ -9014,12 +10911,12 @@
       <c r="F49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="78"/>
+      <c r="G49" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
     </row>
     <row r="50" spans="2:13" ht="15.75" customHeight="1">
       <c r="B50" s="2" t="s">
@@ -9035,47 +10932,47 @@
       <c r="F50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="78"/>
+      <c r="G50" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="80"/>
     </row>
     <row r="52" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="79" t="s">
+      <c r="D52" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="79" t="s">
+      <c r="E52" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="79" t="s">
+      <c r="F52" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="76" t="s">
+      <c r="G52" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="77"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="76" t="s">
+      <c r="H52" s="79"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="78"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="80"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
       <c r="G53" s="5" t="s">
         <v>16</v>
       </c>
@@ -9099,116 +10996,127 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="27" customHeight="1">
-      <c r="B54" s="55">
+      <c r="B54" s="54">
         <v>1</v>
       </c>
       <c r="C54" s="51">
         <v>36</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="23"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="70" t="s">
-        <v>100</v>
+      <c r="J54" s="67">
+        <v>43822</v>
       </c>
       <c r="K54" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L54" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="L54" s="97" t="s">
+        <v>149</v>
+      </c>
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="43.5" customHeight="1">
-      <c r="B55" s="55">
+      <c r="B55" s="54">
         <v>2</v>
       </c>
       <c r="C55" s="51">
         <v>37</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="73" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="E55" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="70" t="s">
+        <v>104</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="23"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="70" t="s">
-        <v>100</v>
+      <c r="J55" s="67">
+        <v>43822</v>
       </c>
       <c r="K55" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L55" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="L55" s="44" t="s">
+        <v>149</v>
+      </c>
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="27" customHeight="1">
-      <c r="B56" s="55">
+      <c r="B56" s="54">
         <v>3</v>
       </c>
       <c r="C56" s="52">
         <v>40</v>
       </c>
-      <c r="D56" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>144</v>
+      <c r="D56" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="23"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="70" t="s">
-        <v>70</v>
+      <c r="J56" s="67">
+        <v>43822</v>
       </c>
       <c r="K56" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L56" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="L56" s="97" t="s">
+        <v>149</v>
+      </c>
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="2:13" ht="27" customHeight="1">
-      <c r="B57" s="55">
+      <c r="B57" s="54">
         <v>4</v>
       </c>
       <c r="C57" s="51">
         <v>48</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>107</v>
+        <v>135</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="23"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="70" t="s">
-        <v>70</v>
+      <c r="J57" s="67">
+        <v>43822</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L57" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="L57" s="97" t="s">
+        <v>149</v>
+      </c>
       <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" customHeight="1">
+      <c r="J58" s="95"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" customHeight="1">
       <c r="B61" s="2" t="s">
@@ -9224,12 +11132,12 @@
       <c r="F61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="78"/>
+      <c r="G61" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="80"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" customHeight="1">
       <c r="B62" s="2" t="s">
@@ -9245,45 +11153,45 @@
       <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="83"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="79" t="s">
+      <c r="D64" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="79" t="s">
+      <c r="E64" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="79" t="s">
+      <c r="F64" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="76" t="s">
+      <c r="G64" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="77"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="76" t="s">
+      <c r="H64" s="79"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="78"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="80"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B65" s="80"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="75"/>
       <c r="G65" s="5" t="s">
         <v>16</v>
       </c>
@@ -9314,59 +11222,52 @@
         <v>86</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="75" t="s">
-        <v>147</v>
+        <v>112</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="72" t="s">
+        <v>137</v>
       </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="H66" s="12"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="70" t="s">
-        <v>115</v>
+      <c r="J66" s="67">
+        <v>43822</v>
       </c>
       <c r="K66" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L66" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="L66" s="97" t="s">
+        <v>149</v>
+      </c>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="2:14" ht="27" customHeight="1">
-      <c r="B67" s="3">
-        <v>2</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K67" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L67" s="12"/>
-      <c r="M67" s="3"/>
+    <row r="70" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="80"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" customHeight="1">
       <c r="B71" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C71" s="13">
         <v>43822</v>
@@ -9376,255 +11277,265 @@
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="80"/>
+    </row>
+    <row r="72" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B73" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="79"/>
+      <c r="I73" s="80"/>
+      <c r="J73" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="77"/>
+    </row>
+    <row r="75" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B75" s="48">
         <v>1</v>
       </c>
-      <c r="G71" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="78"/>
-    </row>
-    <row r="72" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="13">
+      <c r="C75" s="8">
+        <v>43</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="67">
         <v>43822</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="78"/>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-    </row>
-    <row r="74" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B74" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="77"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N75" s="82"/>
+      <c r="K75" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L75" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="M75" s="38"/>
+      <c r="N75" s="42"/>
     </row>
     <row r="76" spans="2:14" ht="39.75" customHeight="1">
       <c r="B76" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" s="8">
-        <v>43</v>
-      </c>
-      <c r="D76" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="63" t="s">
         <v>121</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="64" t="s">
-        <v>122</v>
       </c>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="I76" s="23"/>
-      <c r="J76" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K76" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L76" s="40"/>
+      <c r="J76" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K76" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="41" t="s">
+        <v>149</v>
+      </c>
       <c r="M76" s="38"/>
       <c r="N76" s="42"/>
     </row>
     <row r="77" spans="2:14" ht="39.75" customHeight="1">
       <c r="B77" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="8">
-        <v>225</v>
-      </c>
-      <c r="D77" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="64" t="s">
-        <v>126</v>
+        <v>226</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="63" t="s">
+        <v>122</v>
       </c>
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
       <c r="I77" s="23"/>
-      <c r="J77" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K77" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L77" s="40"/>
+      <c r="J77" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K77" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" s="41" t="s">
+        <v>149</v>
+      </c>
       <c r="M77" s="38"/>
       <c r="N77" s="42"/>
     </row>
     <row r="78" spans="2:14" ht="39.75" customHeight="1">
       <c r="B78" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="8">
-        <v>226</v>
-      </c>
-      <c r="D78" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="64" t="s">
-        <v>127</v>
+        <v>228</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" s="63" t="s">
+        <v>123</v>
       </c>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
       <c r="I78" s="23"/>
-      <c r="J78" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K78" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L78" s="40"/>
+      <c r="J78" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K78" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" s="41" t="s">
+        <v>149</v>
+      </c>
       <c r="M78" s="38"/>
       <c r="N78" s="42"/>
     </row>
     <row r="79" spans="2:14" ht="39.75" customHeight="1">
       <c r="B79" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="8">
-        <v>228</v>
-      </c>
-      <c r="D79" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="64" t="s">
-        <v>128</v>
+        <v>229</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="63" t="s">
+        <v>117</v>
       </c>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="23"/>
-      <c r="J79" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K79" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L79" s="41"/>
+      <c r="J79" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K79" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" s="69" t="s">
+        <v>149</v>
+      </c>
       <c r="M79" s="38"/>
-      <c r="N79" s="42"/>
-    </row>
-    <row r="80" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B80" s="48">
-        <v>5</v>
-      </c>
-      <c r="C80" s="8">
-        <v>229</v>
-      </c>
-      <c r="D80" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K80" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L80" s="41"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="43"/>
+      <c r="N79" s="43"/>
+    </row>
+    <row r="83" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="80"/>
     </row>
     <row r="84" spans="2:14" ht="15.75" customHeight="1">
       <c r="B84" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C84" s="13">
         <v>43822</v>
@@ -9634,859 +11545,634 @@
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="80"/>
+    </row>
+    <row r="85" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B85" s="16"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+    </row>
+    <row r="86" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B86" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="79"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="80"/>
+      <c r="N86" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N87" s="77"/>
+    </row>
+    <row r="88" spans="2:14" ht="64.5" customHeight="1">
+      <c r="B88" s="3">
         <v>1</v>
       </c>
-      <c r="G84" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="78"/>
-    </row>
-    <row r="85" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="13">
+      <c r="C88" s="8">
+        <v>33</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G88" s="38"/>
+      <c r="H88" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="67">
         <v>43822</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="78"/>
-    </row>
-    <row r="86" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B86" s="16"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-    </row>
-    <row r="87" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B87" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="77"/>
-      <c r="I87" s="78"/>
-      <c r="J87" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="78"/>
-      <c r="N87" s="81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N88" s="82"/>
-    </row>
-    <row r="89" spans="2:14" ht="64.5" customHeight="1">
-      <c r="B89" s="3">
-        <v>1</v>
+      <c r="K88" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L88" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="M88" s="38"/>
+      <c r="N88" s="42"/>
+    </row>
+    <row r="89" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B89" s="48">
+        <v>3</v>
       </c>
       <c r="C89" s="8">
-        <v>33</v>
-      </c>
-      <c r="D89" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="67" t="s">
-        <v>152</v>
+        <v>68</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="G89" s="38"/>
-      <c r="H89" s="41" t="s">
-        <v>110</v>
-      </c>
+      <c r="H89" s="41"/>
       <c r="I89" s="23"/>
-      <c r="J89" s="70">
-        <v>43811</v>
+      <c r="J89" s="67">
+        <v>43822</v>
       </c>
       <c r="K89" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L89" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="L89" s="69" t="s">
+        <v>149</v>
+      </c>
       <c r="M89" s="38"/>
       <c r="N89" s="42"/>
     </row>
-    <row r="90" spans="2:14" ht="64.5" customHeight="1">
-      <c r="B90" s="48">
+    <row r="90" spans="2:14" ht="15.75" customHeight="1">
+      <c r="J90" s="68"/>
+    </row>
+    <row r="93" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="80"/>
+    </row>
+    <row r="94" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="78"/>
+      <c r="H94" s="79"/>
+      <c r="I94" s="79"/>
+      <c r="J94" s="80"/>
+    </row>
+    <row r="96" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B96" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="79"/>
+      <c r="I96" s="80"/>
+      <c r="J96" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
+      <c r="M96" s="80"/>
+      <c r="N96" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="77"/>
+    </row>
+    <row r="98" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B98" s="48">
+        <v>1</v>
+      </c>
+      <c r="C98" s="8">
+        <v>43</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E98" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K98" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L98" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="M98" s="38"/>
+      <c r="N98" s="42"/>
+    </row>
+    <row r="99" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B99" s="48">
         <v>2</v>
       </c>
-      <c r="C90" s="8">
-        <v>33</v>
-      </c>
-      <c r="D90" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F90" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="G90" s="38"/>
-      <c r="H90" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I90" s="23"/>
-      <c r="J90" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K90" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L90" s="40"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="42"/>
-    </row>
-    <row r="91" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B91" s="48">
+      <c r="C99" s="8">
+        <v>225</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F99" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K99" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L99" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="M99" s="38"/>
+      <c r="N99" s="42"/>
+    </row>
+    <row r="100" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B100" s="48">
         <v>3</v>
       </c>
-      <c r="C91" s="8">
-        <v>48</v>
-      </c>
-      <c r="D91" s="65" t="str">
-        <f>+ ",wrapping = ?"</f>
-        <v>,wrapping = ?</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="G91" s="38"/>
-      <c r="H91" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I91" s="23"/>
-      <c r="J91" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K91" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L91" s="40"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="42"/>
-    </row>
-    <row r="92" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B92" s="48"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="65" t="str">
-        <f>+ ",wrapping = ?"</f>
-        <v>,wrapping = ?</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F92" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="G92" s="38"/>
-      <c r="H92" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I92" s="23"/>
-      <c r="J92" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K92" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L92" s="40"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="42"/>
-    </row>
-    <row r="93" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B93" s="48">
+      <c r="C100" s="8">
+        <v>226</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K100" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L100" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="M100" s="38"/>
+      <c r="N100" s="42"/>
+    </row>
+    <row r="101" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B101" s="48">
         <v>4</v>
       </c>
-      <c r="C93" s="8">
-        <v>60</v>
-      </c>
-      <c r="D93" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K93" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L93" s="68"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B94" s="48">
+      <c r="C101" s="8">
+        <v>228</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K101" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L101" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="M101" s="38"/>
+      <c r="N101" s="42"/>
+    </row>
+    <row r="102" spans="2:14" ht="39.75" customHeight="1">
+      <c r="B102" s="48">
         <v>5</v>
       </c>
-      <c r="C94" s="8">
-        <v>148</v>
-      </c>
-      <c r="D94" s="65" t="str">
-        <f>+ ",`wrapping`"</f>
-        <v>,`wrapping`</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="G94" s="38"/>
-      <c r="H94" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I94" s="23"/>
-      <c r="J94" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K94" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L94" s="40"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="42"/>
-    </row>
-    <row r="95" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B95" s="48"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="65" t="str">
-        <f>+ ",`wrapping`"</f>
-        <v>,`wrapping`</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="G95" s="38"/>
-      <c r="H95" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K95" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L95" s="40"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="42"/>
-    </row>
-    <row r="96" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B96" s="48">
+      <c r="C102" s="8">
+        <v>229</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K102" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L102" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="M102" s="38"/>
+      <c r="N102" s="43"/>
+    </row>
+    <row r="106" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="16"/>
+      <c r="F106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="80"/>
+    </row>
+    <row r="107" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="13">
+        <v>43822</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="16"/>
+      <c r="F107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="8">
-        <v>169</v>
-      </c>
-      <c r="D96" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="G96" s="38"/>
-      <c r="H96" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="I96" s="23"/>
-      <c r="J96" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K96" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L96" s="40"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="42"/>
-    </row>
-    <row r="97" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B97" s="48">
-        <v>7</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F97" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="G97" s="38"/>
-      <c r="H97" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I97" s="23"/>
-      <c r="J97" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K97" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L97" s="40"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="42"/>
-    </row>
-    <row r="98" spans="2:14" ht="15.75" customHeight="1">
-      <c r="J98" s="71"/>
-    </row>
-    <row r="101" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E101" s="16"/>
-      <c r="F101" s="2" t="s">
+      <c r="G107" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="80"/>
+    </row>
+    <row r="109" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B109" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="79"/>
+      <c r="I109" s="80"/>
+      <c r="J109" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
+      <c r="M109" s="80"/>
+    </row>
+    <row r="110" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B110" s="75"/>
+      <c r="C110" s="75"/>
+      <c r="D110" s="75"/>
+      <c r="E110" s="75"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" ht="42" customHeight="1">
+      <c r="B111" s="3">
         <v>1</v>
       </c>
-      <c r="G101" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="78"/>
-    </row>
-    <row r="102" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E102" s="16"/>
-      <c r="F102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="83"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="78"/>
-    </row>
-    <row r="104" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B104" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="77"/>
-      <c r="I104" s="78"/>
-      <c r="J104" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="78"/>
-      <c r="N104" s="81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L105" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N105" s="82"/>
-    </row>
-    <row r="106" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B106" s="48">
-        <v>1</v>
-      </c>
-      <c r="C106" s="8">
-        <v>43</v>
-      </c>
-      <c r="D106" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F106" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="23"/>
-      <c r="J106" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K106" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L106" s="40"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="42"/>
-    </row>
-    <row r="107" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B107" s="48">
-        <v>2</v>
-      </c>
-      <c r="C107" s="8">
-        <v>225</v>
-      </c>
-      <c r="D107" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F107" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K107" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L107" s="40"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="42"/>
-    </row>
-    <row r="108" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B108" s="48">
-        <v>3</v>
-      </c>
-      <c r="C108" s="8">
-        <v>226</v>
-      </c>
-      <c r="D108" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F108" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K108" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L108" s="40"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="42"/>
-    </row>
-    <row r="109" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B109" s="48">
-        <v>4</v>
-      </c>
-      <c r="C109" s="8">
-        <v>228</v>
-      </c>
-      <c r="D109" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F109" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K109" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L109" s="41"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="42"/>
-    </row>
-    <row r="110" spans="2:14" ht="39.75" customHeight="1">
-      <c r="B110" s="48">
-        <v>5</v>
-      </c>
-      <c r="C110" s="8">
-        <v>229</v>
-      </c>
-      <c r="D110" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F110" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="70">
-        <v>43811</v>
-      </c>
-      <c r="K110" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="L110" s="41"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="43"/>
-    </row>
-    <row r="114" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B114" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G114" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="78"/>
-    </row>
-    <row r="115" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="13">
-        <v>43822</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H115" s="77"/>
-      <c r="I115" s="77"/>
-      <c r="J115" s="78"/>
-    </row>
-    <row r="117" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B117" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="77"/>
-      <c r="I117" s="78"/>
-      <c r="J117" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
-      <c r="M117" s="78"/>
-    </row>
-    <row r="118" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B118" s="80"/>
-      <c r="C118" s="80"/>
-      <c r="D118" s="80"/>
-      <c r="E118" s="80"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L118" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119" spans="2:13" ht="27" customHeight="1">
-      <c r="B119" s="3">
-        <v>1</v>
-      </c>
-      <c r="C119" s="8">
+      <c r="C111" s="8">
         <v>55</v>
       </c>
-      <c r="D119" s="65" t="str">
+      <c r="D111" s="64" t="str">
         <f>+ "  d.wrapping,"</f>
         <v xml:space="preserve">  d.wrapping,</v>
       </c>
-      <c r="E119" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K119" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L119" s="12"/>
-      <c r="M119" s="3"/>
-    </row>
-    <row r="120" spans="2:13" ht="27" customHeight="1">
-      <c r="B120" s="3">
-        <v>2</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="65" t="str">
-        <f>+ "  d.wrapping,"</f>
-        <v xml:space="preserve">  d.wrapping,</v>
-      </c>
-      <c r="E120" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F120" s="10" t="s">
+      <c r="E111" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K111" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L111" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="2:14" ht="40.5" customHeight="1">
+      <c r="B112" s="3">
+        <v>3</v>
+      </c>
+      <c r="C112" s="8">
+        <v>89</v>
+      </c>
+      <c r="D112" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F112" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K120" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L120" s="12"/>
-      <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="2:13" ht="27" customHeight="1">
-      <c r="B121" s="3">
-        <v>3</v>
-      </c>
-      <c r="C121" s="8">
-        <v>89</v>
-      </c>
-      <c r="D121" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F121" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K121" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L121" s="12"/>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="2:13" ht="27" customHeight="1">
-      <c r="B122" s="3">
-        <v>4</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F122" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K122" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="L122" s="12"/>
-      <c r="M122" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="67">
+        <v>43822</v>
+      </c>
+      <c r="K112" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L112" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="M112" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -10500,69 +12186,25 @@
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="G115:J115"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10573,93 +12215,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0D254-4309-4D0F-8143-234AE4503272}">
-  <dimension ref="C5:D229"/>
+  <dimension ref="C5:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="L257" sqref="L257"/>
+    <sheetView topLeftCell="B472" workbookViewId="0">
+      <selection activeCell="L486" sqref="L486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="5" spans="3:4" ht="14.25">
-      <c r="C5" s="84" t="s">
+    <row r="5" spans="3:4" ht="17.25">
+      <c r="C5" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="85"/>
+    </row>
+    <row r="7" spans="3:4" ht="14.25">
+      <c r="C7" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="85"/>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="23" spans="3:3" ht="15">
+      <c r="C23" s="93" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="15" t="s">
+    <row r="38" spans="3:3" ht="15">
+      <c r="C38" s="93" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="15" t="s">
+    <row r="52" spans="3:3" ht="15">
+      <c r="C52" s="93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" ht="14.25">
-      <c r="C65" s="84" t="s">
-        <v>61</v>
+    <row r="65" spans="3:4" ht="17.25">
+      <c r="C65" s="86" t="s">
+        <v>107</v>
       </c>
       <c r="D65" s="85"/>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="15" t="s">
+    <row r="67" spans="3:4" ht="15">
+      <c r="C67" s="93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" ht="15">
+      <c r="C77" s="93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" ht="15">
+      <c r="C87" s="93" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3">
-      <c r="C142" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="15" t="s">
+    <row r="111" spans="3:3" ht="15">
+      <c r="C111" s="93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" ht="15">
+      <c r="C142" s="93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" ht="15">
+      <c r="C173" s="93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" ht="15">
+      <c r="C196" s="93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" ht="15">
+      <c r="C227" s="93" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="196" spans="3:3">
-      <c r="C196" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3">
-      <c r="C227" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="229" spans="3:3">
       <c r="C229" s="47"/>
     </row>
+    <row r="253" spans="3:6" ht="14.25">
+      <c r="C253" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D253" s="83"/>
+      <c r="E253" s="83"/>
+      <c r="F253" s="83"/>
+    </row>
+    <row r="254" spans="3:6" ht="15">
+      <c r="C254" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" ht="15">
+      <c r="C267" s="93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="293" spans="3:6" ht="14.25">
+      <c r="C293" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D293" s="83"/>
+      <c r="E293" s="83"/>
+      <c r="F293" s="83"/>
+    </row>
+    <row r="294" spans="3:6" ht="14.25">
+      <c r="C294" s="96"/>
+      <c r="D294" s="73"/>
+      <c r="E294" s="73"/>
+      <c r="F294" s="73"/>
+    </row>
+    <row r="295" spans="3:6" ht="15">
+      <c r="C295" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" ht="15">
+      <c r="C309" s="93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" ht="15">
+      <c r="C324" s="93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" ht="15">
+      <c r="C343" s="93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="355" spans="3:6" ht="14.25">
+      <c r="C355" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="D355" s="94"/>
+      <c r="E355" s="94"/>
+      <c r="F355" s="94"/>
+    </row>
+    <row r="358" spans="3:6" ht="15">
+      <c r="C358" s="93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" ht="15">
+      <c r="C374" s="93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="388" spans="3:6">
+      <c r="C388" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D388" s="89"/>
+      <c r="E388" s="89"/>
+      <c r="F388" s="89"/>
+    </row>
+    <row r="390" spans="3:6" ht="15">
+      <c r="C390" s="93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" ht="15">
+      <c r="C403" s="93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="440" spans="3:6" ht="17.25">
+      <c r="C440" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D440" s="85"/>
+      <c r="E440" s="85"/>
+      <c r="F440" s="85"/>
+    </row>
+    <row r="441" spans="3:6" ht="15">
+      <c r="C441" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D441" s="85"/>
+    </row>
+    <row r="450" spans="3:6" ht="17.25">
+      <c r="C450" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D450" s="85"/>
+      <c r="E450" s="85"/>
+      <c r="F450" s="85"/>
+    </row>
+    <row r="451" spans="3:6" ht="15">
+      <c r="C451" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D451" s="85"/>
+    </row>
+    <row r="489" spans="3:4" ht="15">
+      <c r="C489" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D489" s="85"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="C489:D489"/>
+    <mergeCell ref="C388:F388"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C441:D441"/>
+    <mergeCell ref="C450:F450"/>
+    <mergeCell ref="C451:D451"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="C293:F293"/>
+    <mergeCell ref="C355:F355"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10669,135 +12447,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A265512-4E5F-4F93-924E-B33621639E92}">
-  <dimension ref="B3:S227"/>
+  <dimension ref="B3:S235"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="L230" sqref="L230"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="N203" sqref="N203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:19" ht="15">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="10" spans="2:19">
       <c r="S10" s="14"/>
     </row>
     <row r="30" spans="2:5" ht="17.25">
       <c r="B30" s="86" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30" s="86"/>
       <c r="D30" s="86"/>
       <c r="E30" s="86"/>
     </row>
     <row r="31" spans="2:5" ht="15">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="15"/>
     </row>
     <row r="57" spans="2:5" ht="17.25">
-      <c r="B57" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
+      <c r="B57" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
     </row>
     <row r="58" spans="2:5" ht="15">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
     </row>
     <row r="75" spans="2:5" ht="15">
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
     </row>
     <row r="76" spans="2:5" ht="15">
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
     </row>
     <row r="82" spans="8:9">
       <c r="H82" s="89"/>
       <c r="I82" s="89"/>
     </row>
     <row r="97" spans="2:5" ht="17.25">
-      <c r="B97" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C97" s="90"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
+      <c r="B97" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="88"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
     </row>
     <row r="122" spans="2:5" ht="17.25">
-      <c r="B122" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C122" s="90"/>
-      <c r="D122" s="90"/>
-      <c r="E122" s="90"/>
+      <c r="B122" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
     </row>
     <row r="134" spans="2:5" ht="17.25">
       <c r="B134" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="C134" s="87"/>
-      <c r="D134" s="87"/>
-      <c r="E134" s="87"/>
+        <v>113</v>
+      </c>
+      <c r="C134" s="85"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
     </row>
     <row r="158" spans="2:5" ht="17.25">
       <c r="B158" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C158" s="87"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="87"/>
-    </row>
-    <row r="203" spans="2:5" ht="17.25">
-      <c r="B203" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="C203" s="87"/>
-      <c r="D203" s="87"/>
-      <c r="E203" s="87"/>
-    </row>
-    <row r="227" spans="2:5" ht="17.25">
-      <c r="B227" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C227" s="87"/>
-      <c r="D227" s="87"/>
-      <c r="E227" s="87"/>
+        <v>115</v>
+      </c>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+    </row>
+    <row r="211" spans="2:5" ht="17.25">
+      <c r="B211" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C211" s="85"/>
+      <c r="D211" s="85"/>
+      <c r="E211" s="85"/>
+    </row>
+    <row r="235" spans="2:5" ht="17.25">
+      <c r="B235" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C235" s="85"/>
+      <c r="D235" s="85"/>
+      <c r="E235" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B235:E235"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B97:E97"/>
     <mergeCell ref="B75:E75"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="B203:E203"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B97:E97"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10894,44 +12672,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="76" t="s">
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>

--- a/試験項目書/単体試験項目書.xlsx
+++ b/試験項目書/単体試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED486B0-0AFB-4480-9CF4-FFB09FC71D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C026CC-ACB0-42ED-AC4E-4DCF789485D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="164">
   <si>
     <t>作成</t>
   </si>
@@ -1610,6 +1610,13 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>項番５</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2079,46 +2086,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2127,9 +2094,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,9 +2106,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2156,6 +2117,52 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5180,15 +5187,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>358</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>161298</xdr:colOff>
+      <xdr:colOff>151773</xdr:colOff>
       <xdr:row>369</xdr:row>
-      <xdr:rowOff>161688</xdr:rowOff>
+      <xdr:rowOff>142638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5211,7 +5218,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238250" y="58740675"/>
+          <a:off x="1228725" y="58721625"/>
           <a:ext cx="5019048" cy="1895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5224,15 +5231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>365</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>367</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5247,7 +5254,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1552575" y="59950349"/>
+          <a:off x="1647825" y="60321824"/>
           <a:ext cx="4352925" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5401,13 +5408,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>570211</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>414</xdr:row>
       <xdr:rowOff>104585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5445,13 +5452,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5511,13 +5518,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>576168</xdr:colOff>
-      <xdr:row>403</xdr:row>
+      <xdr:row>417</xdr:row>
       <xdr:rowOff>157067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>499673</xdr:colOff>
-      <xdr:row>436</xdr:row>
+      <xdr:row>450</xdr:row>
       <xdr:rowOff>23233</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5555,13 +5562,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>430</xdr:row>
+      <xdr:row>444</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>446</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5621,13 +5628,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>442</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>351156</xdr:colOff>
-      <xdr:row>446</xdr:row>
+      <xdr:row>460</xdr:row>
       <xdr:rowOff>66589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5665,13 +5672,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>444</xdr:row>
+      <xdr:row>458</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5731,13 +5738,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>451</xdr:row>
+      <xdr:row>465</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>580727</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:row>498</xdr:row>
       <xdr:rowOff>161243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5775,13 +5782,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>479</xdr:row>
+      <xdr:row>493</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>480</xdr:row>
+      <xdr:row>494</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5841,13 +5848,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>490</xdr:row>
+      <xdr:row>504</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>55849</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>518</xdr:row>
       <xdr:rowOff>9243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5885,13 +5892,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>516</xdr:row>
       <xdr:rowOff>123823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>518</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5909,6 +5916,116 @@
         <a:xfrm flipV="1">
           <a:off x="1685925" y="82419823"/>
           <a:ext cx="8791575" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570211</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>114168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EF8481-D951-4754-8AF7-2A248A6F3B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="63960375"/>
+          <a:ext cx="10314286" cy="1057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45270DC9-9B41-4E53-96CF-DDC911A9FD19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1438275" y="64703325"/>
+          <a:ext cx="9058275" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9829,8 +9946,8 @@
   </sheetPr>
   <dimension ref="B2:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9857,12 +9974,12 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -9877,45 +9994,45 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
@@ -10100,12 +10217,12 @@
       <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -10124,10 +10241,10 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
@@ -10147,39 +10264,39 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81" t="s">
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
@@ -10229,7 +10346,7 @@
       <c r="K18" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="80" t="s">
         <v>83</v>
       </c>
       <c r="M18" s="3"/>
@@ -10318,12 +10435,12 @@
       <c r="F23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="80"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
@@ -10342,10 +10459,10 @@
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -10365,42 +10482,42 @@
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="79"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81" t="s">
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="76" t="s">
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="91" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="5" t="s">
         <v>16</v>
       </c>
@@ -10422,7 +10539,7 @@
       <c r="M27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="77"/>
+      <c r="N27" s="92"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" customHeight="1">
       <c r="B28" s="24">
@@ -10705,12 +10822,12 @@
       <c r="F38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="78" t="s">
+      <c r="G38" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="80"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
       <c r="K38" s="36"/>
       <c r="L38" s="37"/>
       <c r="M38" s="30"/>
@@ -10729,48 +10846,48 @@
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="78"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="80"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="88"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="74" t="s">
+      <c r="D41" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E41" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="74" t="s">
+      <c r="F41" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="81" t="s">
+      <c r="H41" s="87"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="76" t="s">
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="91" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
       <c r="G42" s="5" t="s">
         <v>16</v>
       </c>
@@ -10792,7 +10909,7 @@
       <c r="M42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="77"/>
+      <c r="N42" s="92"/>
     </row>
     <row r="43" spans="2:14" ht="39.75" customHeight="1">
       <c r="B43" s="46">
@@ -10844,7 +10961,7 @@
       <c r="E44" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="90" t="s">
+      <c r="F44" s="74" t="s">
         <v>147</v>
       </c>
       <c r="G44" s="38"/>
@@ -10877,7 +10994,7 @@
       <c r="E45" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="91" t="s">
+      <c r="F45" s="75" t="s">
         <v>148</v>
       </c>
       <c r="G45" s="38"/>
@@ -10911,12 +11028,12 @@
       <c r="F49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="78" t="s">
+      <c r="G49" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="80"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="88"/>
     </row>
     <row r="50" spans="2:13" ht="15.75" customHeight="1">
       <c r="B50" s="2" t="s">
@@ -10932,47 +11049,47 @@
       <c r="F50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="78" t="s">
+      <c r="G50" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="80"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="88"/>
     </row>
     <row r="52" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="74" t="s">
+      <c r="E52" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="81" t="s">
+      <c r="G52" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="81" t="s">
+      <c r="H52" s="87"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="80"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="88"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
       <c r="G53" s="5" t="s">
         <v>16</v>
       </c>
@@ -11020,7 +11137,7 @@
       <c r="K54" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L54" s="97" t="s">
+      <c r="L54" s="80" t="s">
         <v>149</v>
       </c>
       <c r="M54" s="3"/>
@@ -11035,7 +11152,7 @@
       <c r="D55" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="83" t="s">
         <v>103</v>
       </c>
       <c r="F55" s="70" t="s">
@@ -11065,7 +11182,7 @@
       <c r="D56" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="100" t="s">
+      <c r="E56" s="82" t="s">
         <v>103</v>
       </c>
       <c r="F56" s="71" t="s">
@@ -11080,7 +11197,7 @@
       <c r="K56" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L56" s="97" t="s">
+      <c r="L56" s="80" t="s">
         <v>149</v>
       </c>
       <c r="M56" s="3"/>
@@ -11110,13 +11227,13 @@
       <c r="K57" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L57" s="97" t="s">
+      <c r="L57" s="80" t="s">
         <v>149</v>
       </c>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="2:13" ht="15.75" customHeight="1">
-      <c r="J58" s="95"/>
+      <c r="J58" s="78"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" customHeight="1">
       <c r="B61" s="2" t="s">
@@ -11132,12 +11249,12 @@
       <c r="F61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="78" t="s">
+      <c r="G61" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="80"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="88"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" customHeight="1">
       <c r="B62" s="2" t="s">
@@ -11153,45 +11270,45 @@
       <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="80"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="87"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="88"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="74" t="s">
+      <c r="C64" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="81" t="s">
+      <c r="G64" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="79"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="81" t="s">
+      <c r="H64" s="87"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="80"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="88"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="75"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="90"/>
       <c r="G65" s="5" t="s">
         <v>16</v>
       </c>
@@ -11239,7 +11356,7 @@
       <c r="K66" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L66" s="97" t="s">
+      <c r="L66" s="80" t="s">
         <v>149</v>
       </c>
       <c r="M66" s="3"/>
@@ -11258,12 +11375,12 @@
       <c r="F70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="78" t="s">
+      <c r="G70" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="80"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="88"/>
     </row>
     <row r="71" spans="2:14" ht="15.75" customHeight="1">
       <c r="B71" s="2" t="s">
@@ -11279,12 +11396,12 @@
       <c r="F71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="78" t="s">
+      <c r="G71" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="80"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="88"/>
     </row>
     <row r="72" spans="2:14" ht="15.75" customHeight="1">
       <c r="B72" s="60"/>
@@ -11298,42 +11415,42 @@
       <c r="J72" s="49"/>
     </row>
     <row r="73" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="74" t="s">
+      <c r="D73" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="74" t="s">
+      <c r="F73" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="81" t="s">
+      <c r="G73" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="79"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="81" t="s">
+      <c r="H73" s="87"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="76" t="s">
+      <c r="K73" s="87"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="91" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="74" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B74" s="75"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
       <c r="G74" s="5" t="s">
         <v>16</v>
       </c>
@@ -11355,7 +11472,7 @@
       <c r="M74" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N74" s="77"/>
+      <c r="N74" s="92"/>
     </row>
     <row r="75" spans="2:14" ht="39.75" customHeight="1">
       <c r="B75" s="48">
@@ -11382,7 +11499,7 @@
       <c r="K75" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L75" s="98" t="s">
+      <c r="L75" s="81" t="s">
         <v>149</v>
       </c>
       <c r="M75" s="38"/>
@@ -11526,12 +11643,12 @@
       <c r="F83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="78" t="s">
+      <c r="G83" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="80"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+      <c r="J83" s="88"/>
     </row>
     <row r="84" spans="2:14" ht="15.75" customHeight="1">
       <c r="B84" s="2" t="s">
@@ -11547,12 +11664,12 @@
       <c r="F84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G84" s="78" t="s">
+      <c r="G84" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="H84" s="79"/>
-      <c r="I84" s="79"/>
-      <c r="J84" s="80"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="87"/>
+      <c r="J84" s="88"/>
     </row>
     <row r="85" spans="2:14" ht="15.75" customHeight="1">
       <c r="B85" s="16"/>
@@ -11566,42 +11683,42 @@
       <c r="J85" s="30"/>
     </row>
     <row r="86" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="74" t="s">
+      <c r="C86" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="74" t="s">
+      <c r="D86" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="74" t="s">
+      <c r="E86" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="74" t="s">
+      <c r="F86" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="81" t="s">
+      <c r="G86" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="79"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="81" t="s">
+      <c r="H86" s="87"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="80"/>
-      <c r="N86" s="76" t="s">
+      <c r="K86" s="87"/>
+      <c r="L86" s="87"/>
+      <c r="M86" s="88"/>
+      <c r="N86" s="91" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="87" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
       <c r="G87" s="5" t="s">
         <v>16</v>
       </c>
@@ -11623,7 +11740,7 @@
       <c r="M87" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N87" s="77"/>
+      <c r="N87" s="92"/>
     </row>
     <row r="88" spans="2:14" ht="64.5" customHeight="1">
       <c r="B88" s="3">
@@ -11652,7 +11769,7 @@
       <c r="K88" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L88" s="98" t="s">
+      <c r="L88" s="81" t="s">
         <v>149</v>
       </c>
       <c r="M88" s="38"/>
@@ -11660,7 +11777,7 @@
     </row>
     <row r="89" spans="2:14" ht="39.75" customHeight="1">
       <c r="B89" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="8">
         <v>68</v>
@@ -11706,12 +11823,12 @@
       <c r="F93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="78" t="s">
+      <c r="G93" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="H93" s="79"/>
-      <c r="I93" s="79"/>
-      <c r="J93" s="80"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
+      <c r="J93" s="88"/>
     </row>
     <row r="94" spans="2:14" ht="15.75" customHeight="1">
       <c r="B94" s="2" t="s">
@@ -11727,48 +11844,48 @@
       <c r="F94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G94" s="78"/>
-      <c r="H94" s="79"/>
-      <c r="I94" s="79"/>
-      <c r="J94" s="80"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="87"/>
+      <c r="I94" s="87"/>
+      <c r="J94" s="88"/>
     </row>
     <row r="96" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="74" t="s">
+      <c r="C96" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="74" t="s">
+      <c r="E96" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="74" t="s">
+      <c r="F96" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="81" t="s">
+      <c r="G96" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="79"/>
-      <c r="I96" s="80"/>
-      <c r="J96" s="81" t="s">
+      <c r="H96" s="87"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K96" s="79"/>
-      <c r="L96" s="79"/>
-      <c r="M96" s="80"/>
-      <c r="N96" s="76" t="s">
+      <c r="K96" s="87"/>
+      <c r="L96" s="87"/>
+      <c r="M96" s="88"/>
+      <c r="N96" s="91" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="97" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="75"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="90"/>
       <c r="G97" s="5" t="s">
         <v>16</v>
       </c>
@@ -11790,7 +11907,7 @@
       <c r="M97" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N97" s="77"/>
+      <c r="N97" s="92"/>
     </row>
     <row r="98" spans="2:14" ht="39.75" customHeight="1">
       <c r="B98" s="48">
@@ -11817,7 +11934,7 @@
       <c r="K98" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L98" s="98" t="s">
+      <c r="L98" s="81" t="s">
         <v>149</v>
       </c>
       <c r="M98" s="38"/>
@@ -11848,7 +11965,7 @@
       <c r="K99" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L99" s="98" t="s">
+      <c r="L99" s="81" t="s">
         <v>149</v>
       </c>
       <c r="M99" s="38"/>
@@ -11941,7 +12058,7 @@
       <c r="K102" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L102" s="98" t="s">
+      <c r="L102" s="81" t="s">
         <v>149</v>
       </c>
       <c r="M102" s="38"/>
@@ -11961,12 +12078,12 @@
       <c r="F106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G106" s="78" t="s">
+      <c r="G106" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="H106" s="79"/>
-      <c r="I106" s="79"/>
-      <c r="J106" s="80"/>
+      <c r="H106" s="87"/>
+      <c r="I106" s="87"/>
+      <c r="J106" s="88"/>
     </row>
     <row r="107" spans="2:14" ht="15.75" customHeight="1">
       <c r="B107" s="2" t="s">
@@ -11982,47 +12099,47 @@
       <c r="F107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G107" s="78" t="s">
+      <c r="G107" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="H107" s="79"/>
-      <c r="I107" s="79"/>
-      <c r="J107" s="80"/>
+      <c r="H107" s="87"/>
+      <c r="I107" s="87"/>
+      <c r="J107" s="88"/>
     </row>
     <row r="109" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C109" s="74" t="s">
+      <c r="C109" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="74" t="s">
+      <c r="D109" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="74" t="s">
+      <c r="E109" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="74" t="s">
+      <c r="F109" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="81" t="s">
+      <c r="G109" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="79"/>
-      <c r="I109" s="80"/>
-      <c r="J109" s="81" t="s">
+      <c r="H109" s="87"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="80"/>
+      <c r="K109" s="87"/>
+      <c r="L109" s="87"/>
+      <c r="M109" s="88"/>
     </row>
     <row r="110" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B110" s="75"/>
-      <c r="C110" s="75"/>
-      <c r="D110" s="75"/>
-      <c r="E110" s="75"/>
-      <c r="F110" s="75"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="90"/>
+      <c r="E110" s="90"/>
+      <c r="F110" s="90"/>
       <c r="G110" s="5" t="s">
         <v>16</v>
       </c>
@@ -12059,7 +12176,7 @@
       <c r="E111" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="F111" s="103" t="s">
+      <c r="F111" s="85" t="s">
         <v>162</v>
       </c>
       <c r="G111" s="3"/>
@@ -12073,14 +12190,14 @@
       <c r="K111" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L111" s="97" t="s">
+      <c r="L111" s="80" t="s">
         <v>149</v>
       </c>
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:14" ht="40.5" customHeight="1">
       <c r="B112" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="8">
         <v>89</v>
@@ -12091,7 +12208,7 @@
       <c r="E112" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F112" s="102" t="s">
+      <c r="F112" s="84" t="s">
         <v>142</v>
       </c>
       <c r="G112" s="3"/>
@@ -12103,76 +12220,32 @@
       <c r="K112" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L112" s="97" t="s">
+      <c r="L112" s="80" t="s">
         <v>149</v>
       </c>
       <c r="M112" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="J109:M109"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:M41"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -12186,25 +12259,69 @@
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:M26"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="J109:M109"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12215,83 +12332,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0D254-4309-4D0F-8143-234AE4503272}">
-  <dimension ref="C5:F489"/>
+  <dimension ref="C5:F503"/>
   <sheetViews>
-    <sheetView topLeftCell="B472" workbookViewId="0">
-      <selection activeCell="L486" sqref="L486"/>
+    <sheetView topLeftCell="B381" workbookViewId="0">
+      <selection activeCell="O402" sqref="O402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" spans="3:4" ht="17.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="96"/>
     </row>
     <row r="7" spans="3:4" ht="14.25">
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="76" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:3" ht="15">
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="77" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="15">
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="77" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="3:3" ht="15">
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="77" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="17.25">
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="85"/>
+      <c r="D65" s="96"/>
     </row>
     <row r="67" spans="3:4" ht="15">
-      <c r="C67" s="93" t="s">
+      <c r="C67" s="77" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="77" spans="3:4" ht="15">
-      <c r="C77" s="93" t="s">
+      <c r="C77" s="77" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="87" spans="3:3" ht="15">
-      <c r="C87" s="93" t="s">
+      <c r="C87" s="77" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="111" spans="3:3" ht="15">
-      <c r="C111" s="93" t="s">
+      <c r="C111" s="77" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="142" spans="3:3" ht="15">
-      <c r="C142" s="93" t="s">
+      <c r="C142" s="77" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="15">
-      <c r="C173" s="93" t="s">
+      <c r="C173" s="77" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="196" spans="3:3" ht="15">
-      <c r="C196" s="93" t="s">
+      <c r="C196" s="77" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="15">
-      <c r="C227" s="93" t="s">
+      <c r="C227" s="77" t="s">
         <v>94</v>
       </c>
     </row>
@@ -12299,20 +12416,20 @@
       <c r="C229" s="47"/>
     </row>
     <row r="253" spans="3:6" ht="14.25">
-      <c r="C253" s="82" t="s">
+      <c r="C253" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D253" s="83"/>
-      <c r="E253" s="83"/>
-      <c r="F253" s="83"/>
+      <c r="D253" s="100"/>
+      <c r="E253" s="100"/>
+      <c r="F253" s="100"/>
     </row>
     <row r="254" spans="3:6" ht="15">
-      <c r="C254" s="93" t="s">
+      <c r="C254" s="77" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="267" spans="3:3" ht="15">
-      <c r="C267" s="93" t="s">
+      <c r="C267" s="77" t="s">
         <v>154</v>
       </c>
     </row>
@@ -12322,122 +12439,127 @@
       </c>
     </row>
     <row r="293" spans="3:6" ht="14.25">
-      <c r="C293" s="94" t="s">
+      <c r="C293" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D293" s="83"/>
-      <c r="E293" s="83"/>
-      <c r="F293" s="83"/>
+      <c r="D293" s="100"/>
+      <c r="E293" s="100"/>
+      <c r="F293" s="100"/>
     </row>
     <row r="294" spans="3:6" ht="14.25">
-      <c r="C294" s="96"/>
+      <c r="C294" s="79"/>
       <c r="D294" s="73"/>
       <c r="E294" s="73"/>
       <c r="F294" s="73"/>
     </row>
     <row r="295" spans="3:6" ht="15">
-      <c r="C295" s="93" t="s">
+      <c r="C295" s="77" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="309" spans="3:3" ht="15">
-      <c r="C309" s="93" t="s">
+      <c r="C309" s="77" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="324" spans="3:3" ht="15">
-      <c r="C324" s="93" t="s">
+      <c r="C324" s="77" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="343" spans="3:3" ht="15">
-      <c r="C343" s="93" t="s">
+      <c r="C343" s="77" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="355" spans="3:6" ht="14.25">
-      <c r="C355" s="94" t="s">
+      <c r="C355" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="D355" s="94"/>
-      <c r="E355" s="94"/>
-      <c r="F355" s="94"/>
+      <c r="D355" s="101"/>
+      <c r="E355" s="101"/>
+      <c r="F355" s="101"/>
     </row>
     <row r="358" spans="3:6" ht="15">
-      <c r="C358" s="93" t="s">
+      <c r="C358" s="77" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="15">
-      <c r="C374" s="93" t="s">
+      <c r="C374" s="77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="388" spans="3:6">
-      <c r="C388" s="89" t="s">
+    <row r="389" spans="3:3" ht="15">
+      <c r="C389" s="77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="402" spans="3:6">
+      <c r="C402" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="D388" s="89"/>
-      <c r="E388" s="89"/>
-      <c r="F388" s="89"/>
-    </row>
-    <row r="390" spans="3:6" ht="15">
-      <c r="C390" s="93" t="s">
+      <c r="D402" s="97"/>
+      <c r="E402" s="97"/>
+      <c r="F402" s="97"/>
+    </row>
+    <row r="404" spans="3:6" ht="15">
+      <c r="C404" s="77" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="403" spans="3:3" ht="15">
-      <c r="C403" s="93" t="s">
+    <row r="417" spans="3:3" ht="15">
+      <c r="C417" s="77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="440" spans="3:6" ht="17.25">
-      <c r="C440" s="85" t="s">
+    <row r="454" spans="3:6" ht="17.25">
+      <c r="C454" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="D440" s="85"/>
-      <c r="E440" s="85"/>
-      <c r="F440" s="85"/>
-    </row>
-    <row r="441" spans="3:6" ht="15">
-      <c r="C441" s="84" t="s">
+      <c r="D454" s="96"/>
+      <c r="E454" s="96"/>
+      <c r="F454" s="96"/>
+    </row>
+    <row r="455" spans="3:6" ht="15">
+      <c r="C455" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="D441" s="85"/>
-    </row>
-    <row r="450" spans="3:6" ht="17.25">
-      <c r="C450" s="86" t="s">
+      <c r="D455" s="96"/>
+    </row>
+    <row r="464" spans="3:6" ht="17.25">
+      <c r="C464" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="D450" s="85"/>
-      <c r="E450" s="85"/>
-      <c r="F450" s="85"/>
-    </row>
-    <row r="451" spans="3:6" ht="15">
-      <c r="C451" s="84" t="s">
+      <c r="D464" s="96"/>
+      <c r="E464" s="96"/>
+      <c r="F464" s="96"/>
+    </row>
+    <row r="465" spans="3:4" ht="15">
+      <c r="C465" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="D451" s="85"/>
-    </row>
-    <row r="489" spans="3:4" ht="15">
-      <c r="C489" s="84" t="s">
+      <c r="D465" s="96"/>
+    </row>
+    <row r="503" spans="3:4" ht="15">
+      <c r="C503" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="D489" s="85"/>
+      <c r="D503" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C489:D489"/>
-    <mergeCell ref="C388:F388"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C441:D441"/>
-    <mergeCell ref="C450:F450"/>
-    <mergeCell ref="C451:D451"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C253:F253"/>
     <mergeCell ref="C293:F293"/>
     <mergeCell ref="C355:F355"/>
+    <mergeCell ref="C503:D503"/>
+    <mergeCell ref="C402:F402"/>
+    <mergeCell ref="C454:F454"/>
+    <mergeCell ref="C455:D455"/>
+    <mergeCell ref="C464:F464"/>
+    <mergeCell ref="C465:D465"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12449,30 +12571,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A265512-4E5F-4F93-924E-B33621639E92}">
   <dimension ref="B3:S235"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="N203" sqref="N203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" spans="2:19" ht="15">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="10" spans="2:19">
       <c r="S10" s="14"/>
     </row>
     <row r="30" spans="2:5" ht="17.25">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
     </row>
     <row r="31" spans="2:5" ht="15">
       <c r="B31" s="57"/>
@@ -12484,12 +12606,12 @@
       <c r="I36" s="15"/>
     </row>
     <row r="57" spans="2:5" ht="17.25">
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
     </row>
     <row r="58" spans="2:5" ht="15">
       <c r="B58" s="56"/>
@@ -12498,12 +12620,12 @@
       <c r="E58" s="56"/>
     </row>
     <row r="75" spans="2:5" ht="15">
-      <c r="B75" s="84" t="s">
+      <c r="B75" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
     </row>
     <row r="76" spans="2:5" ht="15">
       <c r="B76" s="55"/>
@@ -12512,70 +12634,70 @@
       <c r="E76" s="55"/>
     </row>
     <row r="82" spans="8:9">
-      <c r="H82" s="89"/>
-      <c r="I82" s="89"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
     </row>
     <row r="97" spans="2:5" ht="17.25">
-      <c r="B97" s="88" t="s">
+      <c r="B97" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="88"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
     </row>
     <row r="122" spans="2:5" ht="17.25">
-      <c r="B122" s="87" t="s">
+      <c r="B122" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="88"/>
-      <c r="D122" s="88"/>
-      <c r="E122" s="88"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="103"/>
+      <c r="E122" s="103"/>
     </row>
     <row r="134" spans="2:5" ht="17.25">
-      <c r="B134" s="86" t="s">
+      <c r="B134" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C134" s="85"/>
-      <c r="D134" s="85"/>
-      <c r="E134" s="85"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="96"/>
     </row>
     <row r="158" spans="2:5" ht="17.25">
-      <c r="B158" s="86" t="s">
+      <c r="B158" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
     </row>
     <row r="211" spans="2:5" ht="17.25">
-      <c r="B211" s="86" t="s">
+      <c r="B211" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C211" s="85"/>
-      <c r="D211" s="85"/>
-      <c r="E211" s="85"/>
+      <c r="C211" s="96"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="96"/>
     </row>
     <row r="235" spans="2:5" ht="17.25">
-      <c r="B235" s="87" t="s">
+      <c r="B235" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="C235" s="85"/>
-      <c r="D235" s="85"/>
-      <c r="E235" s="85"/>
+      <c r="C235" s="96"/>
+      <c r="D235" s="96"/>
+      <c r="E235" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B122:E122"/>
     <mergeCell ref="B134:E134"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="B211:E211"/>
     <mergeCell ref="B235:E235"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B122:E122"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12672,44 +12794,44 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81" t="s">
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="80"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
